--- a/cam6_validation_result.xlsx
+++ b/cam6_validation_result.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004B58C6-21A9-4279-BC15-9A1D2BDDE4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441B408-6144-4B62-B11A-BF359829232B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6669" yWindow="2974" windowWidth="24685" windowHeight="13217" xr2:uid="{609D8761-8874-463C-A2ED-735605C29000}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{609D8761-8874-463C-A2ED-735605C29000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$91</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -220,274 +219,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.2292955726820765</c:v>
+                  <c:v>-0.82018331663721256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17507753255586067</c:v>
+                  <c:v>0.61997350810679563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1792697353839685</c:v>
+                  <c:v>-0.19844366415054537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.226665123449493</c:v>
+                  <c:v>0.16304144597643244</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2292213783043735</c:v>
+                  <c:v>-0.56088384591612339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.3401461954190381</c:v>
+                  <c:v>-1.014438907179283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7366615056603223</c:v>
+                  <c:v>-0.82238151022147576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6334913641253479</c:v>
+                  <c:v>-1.1036348670695588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7441062891275578</c:v>
+                  <c:v>-0.78775650759962446</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1553743545746329</c:v>
+                  <c:v>-0.34683666768796684</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2402495488377099</c:v>
+                  <c:v>-0.32765449904263733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.63781812106481084</c:v>
+                  <c:v>0.27273587358831719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0519064352520218E-2</c:v>
+                  <c:v>0.43596308785572546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.81746914295263196</c:v>
+                  <c:v>-1.0884912494484524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.86610114814538974</c:v>
+                  <c:v>-0.61164816169730329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2867241785079386</c:v>
+                  <c:v>-0.39007516819447119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.20292448207146663</c:v>
+                  <c:v>2.3647415242344323</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7369761515915343</c:v>
+                  <c:v>3.3817017070841757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.80305901818428538</c:v>
+                  <c:v>0.29347460413964654</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2286481008945884</c:v>
+                  <c:v>1.0059728883866228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.46988718298371168</c:v>
+                  <c:v>-6.5198253709240817E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.76031855352675848</c:v>
+                  <c:v>-0.35909045920288918</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.6480504623123124E-2</c:v>
+                  <c:v>0.21258656292320666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.44844022035658782</c:v>
+                  <c:v>-0.12002907229452831</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.0241663514034371</c:v>
+                  <c:v>-6.3522752269818739E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44166442381037996</c:v>
+                  <c:v>0.66536246724626835</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9.0627374701398367E-2</c:v>
+                  <c:v>0.65648334434490607</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.59726604320712795</c:v>
+                  <c:v>0.25870377939054379</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.4928408749801747</c:v>
+                  <c:v>-0.19609423741849241</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.8850944414389232E-2</c:v>
+                  <c:v>0.25898089730617357</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.57078601478542623</c:v>
+                  <c:v>-0.30454148301760142</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.36851013619525474</c:v>
+                  <c:v>0.80941676793145234</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.38603763483206421</c:v>
+                  <c:v>0.17860747580289171</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.70251393847502186</c:v>
+                  <c:v>1.1504405445293742</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.15148595285290867</c:v>
+                  <c:v>0.67141207580789342</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6872104696094539</c:v>
+                  <c:v>2.7916157169274811</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.87532801452834974</c:v>
+                  <c:v>1.6546110316417071</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0708805717672476</c:v>
+                  <c:v>1.3511655258935207</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9099666928013903E-2</c:v>
+                  <c:v>1.074624539036904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.3319805071605515</c:v>
+                  <c:v>-0.69942469264969986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.26951460090185719</c:v>
+                  <c:v>0.24506295225501162</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.6827383481167999</c:v>
+                  <c:v>9.7143711719581916E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.39158181829907335</c:v>
+                  <c:v>-0.21521566081901256</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.95253215901266231</c:v>
+                  <c:v>0.86185766142671127</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3663694028041391</c:v>
+                  <c:v>4.5461112661541847E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.83302076689142268</c:v>
+                  <c:v>1.7938130424363408</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.89619594543773928</c:v>
+                  <c:v>-0.80477522765613685</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.72707207415624</c:v>
+                  <c:v>0.31069768099314388</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.669076886008952</c:v>
+                  <c:v>0.3925404470196554</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.81274799729499136</c:v>
+                  <c:v>0.37170551561166576</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.60600109833467286</c:v>
+                  <c:v>-0.59857778238438186</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0035669986300491</c:v>
+                  <c:v>0.35020731861050081</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.91248280576928664</c:v>
+                  <c:v>1.0011631694219432</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3302666813297037</c:v>
+                  <c:v>1.9875014864833247</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.62857875947293</c:v>
+                  <c:v>-0.90153594263892955</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3014805974112278</c:v>
+                  <c:v>6.0504394906729431E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.42815693250577169</c:v>
+                  <c:v>0.18801203801012889</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.84513242213370177</c:v>
+                  <c:v>-0.60362291755654951</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.95375732544380298</c:v>
+                  <c:v>0.73668731070438298</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.67456869987381651</c:v>
+                  <c:v>0.25136760289433369</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0919921936256287</c:v>
+                  <c:v>0.78534517019579653</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.0954162164598529</c:v>
+                  <c:v>-1.092783300839983</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4410821833785121</c:v>
+                  <c:v>-0.32875067676559411</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5663620170103059</c:v>
+                  <c:v>-0.79822424349185894</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2045442679136613</c:v>
+                  <c:v>1.4614102518830805</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3394897214257071</c:v>
+                  <c:v>0.77003236989094148</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9369420501325294</c:v>
+                  <c:v>-9.6452790311559511E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1928625232089871</c:v>
+                  <c:v>-1.4068990705550277</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.68945655069683198</c:v>
+                  <c:v>-1.7495549626123648</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.52704931698599466</c:v>
+                  <c:v>8.2612109851197602E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.7089472531911269</c:v>
+                  <c:v>-0.38106644143317681</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.46667879994038231</c:v>
+                  <c:v>0.56745392624543456</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.80867058893454669</c:v>
+                  <c:v>1.5717793615785922</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3979592598916497</c:v>
+                  <c:v>-1.229462248582422</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.11187277016006192</c:v>
+                  <c:v>-1.4295755109869788</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.59917535966224023</c:v>
+                  <c:v>-0.93785329683259988</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.21656494512717472</c:v>
+                  <c:v>-0.48817716733992711</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.29391835274236655</c:v>
+                  <c:v>-1.3588307275563238</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.98104398406712789</c:v>
+                  <c:v>-0.82384381653946548</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.439830270643597</c:v>
+                  <c:v>1.0357664683619987</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8132796771474204</c:v>
+                  <c:v>2.0638357247526073</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1738235898092171</c:v>
+                  <c:v>1.5859454191731857</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9152126348412821</c:v>
+                  <c:v>-0.25400169982276566</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.4075898785381469</c:v>
+                  <c:v>-1.4036881991810333</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.96891861078484</c:v>
+                  <c:v>-0.4312073271198642</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3676174494539737</c:v>
+                  <c:v>-0.16424447723193225</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.55748894302905683</c:v>
+                  <c:v>-1.2450045819132356</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.37448608316117316</c:v>
+                  <c:v>-1.2452051022255546</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.8742333803061229</c:v>
+                  <c:v>-1.3811968817663001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.28235928925596454</c:v>
+                  <c:v>-0.5517988782021348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,7 +673,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1892,8 +1891,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9759043" y="1175658"/>
-              <a:ext cx="4552950" cy="2702378"/>
+              <a:off x="9797143" y="1191986"/>
+              <a:ext cx="4569279" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2226,7 +2225,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2253,48 +2252,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2507.7707044273179</v>
+        <v>2550.6798166833628</v>
       </c>
       <c r="D2">
-        <v>-2.8379318783066841E-2</v>
+        <v>6.4625551420498764E-2</v>
       </c>
       <c r="E2">
-        <v>-1.2292955726820765</v>
+        <v>-0.82018331663721256</v>
       </c>
       <c r="F2">
-        <v>-2.8379318783066841E-2</v>
+        <v>6.4625551420498764E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.93659870967090275</v>
+        <v>0.78545999847793713</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B3">
-        <v>-16.07</v>
+        <v>-15.93</v>
       </c>
       <c r="C3">
-        <v>2508.8249224674441</v>
+        <v>2552.1199735081068</v>
       </c>
       <c r="D3">
-        <v>-16.026311233998129</v>
+        <v>-16.02173267582555</v>
       </c>
       <c r="E3">
-        <v>-0.17507753255586067</v>
+        <v>0.61997350810679563</v>
       </c>
       <c r="F3">
-        <v>4.3688766001871215E-2</v>
+        <v>-9.1732675825550558E-2</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2305,1780 +2304,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B4">
-        <v>-14.02</v>
+        <v>-14.07</v>
       </c>
       <c r="C4">
-        <v>2507.820730264616</v>
+        <v>2551.3015563358495</v>
       </c>
       <c r="D4">
-        <v>-13.974179676762587</v>
+        <v>-14.129431846346797</v>
       </c>
       <c r="E4">
-        <v>-1.1792697353839685</v>
+        <v>-0.19844366415054537</v>
       </c>
       <c r="F4">
-        <v>4.5820323237412808E-2</v>
+        <v>-5.9431846346797101E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B5">
-        <v>-11.98</v>
+        <v>-12.02</v>
       </c>
       <c r="C5">
-        <v>2507.7733348765505</v>
+        <v>2551.6630414459764</v>
       </c>
       <c r="D5">
-        <v>-11.955045367018389</v>
+        <v>-12.066790302233661</v>
       </c>
       <c r="E5">
-        <v>-1.226665123449493</v>
+        <v>0.16304144597643244</v>
       </c>
       <c r="F5">
-        <v>2.4954632981611269E-2</v>
+        <v>-4.6790302233661762E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.97777777777777775</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B6">
-        <v>-9.9700000000000006</v>
+        <v>-10.02</v>
       </c>
       <c r="C6">
-        <v>2507.7707786216956</v>
+        <v>2550.9391161540839</v>
       </c>
       <c r="D6">
-        <v>-9.9785880840423502</v>
+        <v>-10.0511599994023</v>
       </c>
       <c r="E6">
-        <v>-1.2292213783043735</v>
+        <v>-0.56088384591612339</v>
       </c>
       <c r="F6">
-        <v>-8.5880840423495641E-3</v>
+        <v>-3.1159999402300187E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.9152126348412821</v>
+        <v>1.9875014864833247</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B7">
         <v>-8</v>
       </c>
       <c r="C7">
-        <v>2507.659853804581</v>
+        <v>2550.4855610928207</v>
       </c>
       <c r="D7">
-        <v>-7.9813642388217945</v>
+        <v>-8.0096664755221489</v>
       </c>
       <c r="E7">
-        <v>-1.3401461954190381</v>
+        <v>-1.014438907179283</v>
       </c>
       <c r="F7">
-        <v>1.8635761178205534E-2</v>
+        <v>-9.6664755221489429E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B8">
-        <v>-5.97</v>
+        <v>-6.03</v>
       </c>
       <c r="C8">
-        <v>2507.2633384943397</v>
+        <v>2550.6776184897785</v>
       </c>
       <c r="D8">
-        <v>-5.98268485566504</v>
+        <v>-5.9921872262871636</v>
       </c>
       <c r="E8">
-        <v>-1.7366615056603223</v>
+        <v>-0.82238151022147576</v>
       </c>
       <c r="F8">
-        <v>-1.2684855665040295E-2</v>
+        <v>3.7812773712836645E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B9">
-        <v>-4</v>
+        <v>-3.97</v>
       </c>
       <c r="C9">
-        <v>2508.3665086358747</v>
+        <v>2550.3963651329304</v>
       </c>
       <c r="D9">
-        <v>-3.9888857246945375</v>
+        <v>-3.9299308234645762</v>
       </c>
       <c r="E9">
-        <v>-0.6334913641253479</v>
+        <v>-1.1036348670695588</v>
       </c>
       <c r="F9">
-        <v>1.1114275305462495E-2</v>
+        <v>4.0069176535423967E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B10">
         <v>-1.97</v>
       </c>
       <c r="C10">
-        <v>2507.2558937108724</v>
+        <v>2550.7122434924004</v>
       </c>
       <c r="D10">
-        <v>-1.9739981747766218</v>
+        <v>-1.9410508573914969</v>
       </c>
       <c r="E10">
-        <v>-1.7441062891275578</v>
+        <v>-0.78775650759962446</v>
       </c>
       <c r="F10">
-        <v>-3.9981747766217879E-3</v>
+        <v>2.894914260850312E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>2507.8446256454254</v>
+        <v>2551.153163332312</v>
       </c>
       <c r="D11">
-        <v>2.9473885397334539E-2</v>
+        <v>8.1394689235847459E-2</v>
       </c>
       <c r="E11">
-        <v>-1.1553743545746329</v>
+        <v>-0.34683666768796684</v>
       </c>
       <c r="F11">
-        <v>-5.2611460266546034E-4</v>
+        <v>3.1394689235847456E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C12">
-        <v>2507.7597504511623</v>
+        <v>2551.1723455009574</v>
       </c>
       <c r="D12">
-        <v>2.0281933240003092</v>
+        <v>2.0512791097704661</v>
       </c>
       <c r="E12">
-        <v>-1.2402495488377099</v>
+        <v>-0.32765449904263733</v>
       </c>
       <c r="F12">
-        <v>2.8193324000309161E-2</v>
+        <v>2.127910977046632E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B13">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C13">
-        <v>2508.3621818789352</v>
+        <v>2551.7727358735883</v>
       </c>
       <c r="D13">
-        <v>4.0492934316892706</v>
+        <v>4.0475965514298853</v>
       </c>
       <c r="E13">
-        <v>-0.63781812106481084</v>
+        <v>0.27273587358831719</v>
       </c>
       <c r="F13">
-        <v>1.9293431689270335E-2</v>
+        <v>-2.4034485701145414E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C14">
-        <v>2509.0905190643525</v>
+        <v>2551.9359630878557</v>
       </c>
       <c r="D14">
-        <v>6.0195688953127249</v>
+        <v>6.0166483348627002</v>
       </c>
       <c r="E14">
-        <v>9.0519064352520218E-2</v>
+        <v>0.43596308785572546</v>
       </c>
       <c r="F14">
-        <v>1.9568895312724877E-2</v>
+        <v>-3.3351665137299591E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C15">
-        <v>2508.1825308570474</v>
+        <v>2550.4115087505515</v>
       </c>
       <c r="D15">
-        <v>8.0362440128190418</v>
+        <v>7.9716087448432704</v>
       </c>
       <c r="E15">
-        <v>-0.81746914295263196</v>
+        <v>-1.0884912494484524</v>
       </c>
       <c r="F15">
-        <v>3.6244012819041771E-2</v>
+        <v>-7.8391255156730288E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B16">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C16">
-        <v>2508.1338988518546</v>
+        <v>2550.8883518383027</v>
       </c>
       <c r="D16">
-        <v>10.044002315988971</v>
+        <v>9.9499673396276762</v>
       </c>
       <c r="E16">
-        <v>-0.86610114814538974</v>
+        <v>-0.61164816169730329</v>
       </c>
       <c r="F16">
-        <v>7.4002315988970224E-2</v>
+        <v>-0.1000326603723245</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="C17">
-        <v>2510.2867241785079</v>
+        <v>2551.1099248318055</v>
       </c>
       <c r="D17">
-        <v>12.07556241880709</v>
+        <v>11.897866904838157</v>
       </c>
       <c r="E17">
-        <v>1.2867241785079386</v>
+        <v>-0.39007516819447119</v>
       </c>
       <c r="F17">
-        <v>7.5562418807090026E-2</v>
+        <v>-0.15213309516184381</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B18">
-        <v>13.97</v>
+        <v>14.05</v>
       </c>
       <c r="C18">
-        <v>2508.7970755179285</v>
+        <v>2553.8647415242344</v>
       </c>
       <c r="D18">
-        <v>14.043340601777221</v>
+        <v>13.845542672789383</v>
       </c>
       <c r="E18">
-        <v>-0.20292448207146663</v>
+        <v>2.3647415242344323</v>
       </c>
       <c r="F18">
-        <v>7.3340601777220016E-2</v>
+        <v>-0.20445732721061738</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2509</v>
+        <v>2551.5</v>
       </c>
       <c r="B19">
-        <v>15.95</v>
+        <v>16.07</v>
       </c>
       <c r="C19">
-        <v>2510.7369761515915</v>
+        <v>2554.8817017070842</v>
       </c>
       <c r="D19">
-        <v>16.049368404427589</v>
+        <v>15.758234966669027</v>
       </c>
       <c r="E19">
-        <v>1.7369761515915343</v>
+        <v>3.3817017070841757</v>
       </c>
       <c r="F19">
-        <v>9.9368404427590207E-2</v>
+        <v>-0.31176503333097294</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2609.5030590181841</v>
+        <v>2651.4934746041395</v>
       </c>
       <c r="D20">
-        <v>-9.7750793997553789E-3</v>
+        <v>7.1929876066565021E-2</v>
       </c>
       <c r="E20">
-        <v>0.80305901818428538</v>
+        <v>0.29347460413964654</v>
       </c>
       <c r="F20">
-        <v>-9.7750793997553789E-3</v>
+        <v>7.1929876066565021E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B21">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="C21">
-        <v>2609.9286481008944</v>
+        <v>2652.2059728883864</v>
       </c>
       <c r="D21">
-        <v>-15.98748071094326</v>
+        <v>-15.996764931332631</v>
       </c>
       <c r="E21">
-        <v>1.2286481008945884</v>
+        <v>1.0059728883866228</v>
       </c>
       <c r="F21">
-        <v>8.2519289056740774E-2</v>
+        <v>-9.6764931332630866E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B22">
-        <v>-14.02</v>
+        <v>-14.1</v>
       </c>
       <c r="C22">
-        <v>2609.1698871829835</v>
+        <v>2651.1348017462906</v>
       </c>
       <c r="D22">
-        <v>-13.930952671815179</v>
+        <v>-14.123601450968714</v>
       </c>
       <c r="E22">
-        <v>0.46988718298371168</v>
+        <v>-6.5198253709240817E-2</v>
       </c>
       <c r="F22">
-        <v>8.9047328184820529E-2</v>
+        <v>-2.3601450968714133E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B23">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="C23">
-        <v>2607.9396814464731</v>
+        <v>2650.8409095407969</v>
       </c>
       <c r="D23">
-        <v>-11.912083126075522</v>
+        <v>-12.039371772749693</v>
       </c>
       <c r="E23">
-        <v>-0.76031855352675848</v>
+        <v>-0.35909045920288918</v>
       </c>
       <c r="F23">
-        <v>6.7916873924477983E-2</v>
+        <v>-9.3717727496933634E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B24">
-        <v>-9.9700000000000006</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C24">
-        <v>2608.6735194953767</v>
+        <v>2651.412586562923</v>
       </c>
       <c r="D24">
-        <v>-9.9481402101992042</v>
+        <v>-10.013658596244692</v>
       </c>
       <c r="E24">
-        <v>-2.6480504623123124E-2</v>
+        <v>0.21258656292320666</v>
       </c>
       <c r="F24">
-        <v>2.1859789800796392E-2</v>
+        <v>1.6341403755307127E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B25">
         <v>-8</v>
       </c>
       <c r="C25">
-        <v>2608.2515597796432</v>
+        <v>2651.0799709277053</v>
       </c>
       <c r="D25">
-        <v>-7.9711040219779337</v>
+        <v>-7.9812876083531163</v>
       </c>
       <c r="E25">
-        <v>-0.44844022035658782</v>
+        <v>-0.12002907229452831</v>
       </c>
       <c r="F25">
-        <v>2.8895978022066338E-2</v>
+        <v>1.8712391646883653E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B26">
         <v>-6</v>
       </c>
       <c r="C26">
-        <v>2607.6758336485964</v>
+        <v>2651.13647724773</v>
       </c>
       <c r="D26">
-        <v>-5.964293991409451</v>
+        <v>-5.9542066250171626</v>
       </c>
       <c r="E26">
-        <v>-1.0241663514034371</v>
+        <v>-6.3522752269818739E-2</v>
       </c>
       <c r="F26">
-        <v>3.5706008590548954E-2</v>
+        <v>4.579337498283742E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B27">
         <v>-3.97</v>
       </c>
       <c r="C27">
-        <v>2609.1416644238102</v>
+        <v>2651.8653624672461</v>
       </c>
       <c r="D27">
-        <v>-3.9390738822828757</v>
+        <v>-3.9421543088958195</v>
       </c>
       <c r="E27">
-        <v>0.44166442381037996</v>
+        <v>0.66536246724626835</v>
       </c>
       <c r="F27">
-        <v>3.0926117717124502E-2</v>
+        <v>2.784569110418067E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B28">
         <v>-1.97</v>
       </c>
       <c r="C28">
-        <v>2608.6093726252984</v>
+        <v>2651.8564833443447</v>
       </c>
       <c r="D28">
-        <v>-1.9576095702090395</v>
+        <v>-1.9263341823161284</v>
       </c>
       <c r="E28">
-        <v>-9.0627374701398367E-2</v>
+        <v>0.65648334434490607</v>
       </c>
       <c r="F28">
-        <v>1.23904297909605E-2</v>
+        <v>4.3665817683871566E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C29">
-        <v>2609.2972660432069</v>
+        <v>2651.4587037793904</v>
       </c>
       <c r="D29">
-        <v>5.0296873380571573E-2</v>
+        <v>8.6046331064085338E-2</v>
       </c>
       <c r="E29">
-        <v>0.59726604320712795</v>
+        <v>0.25870377939054379</v>
       </c>
       <c r="F29">
-        <v>5.0296873380571573E-2</v>
+        <v>5.6046331064085339E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B30">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C30">
-        <v>2609.19284087498</v>
+        <v>2651.0039057625813</v>
       </c>
       <c r="D30">
-        <v>2.0529867354111917</v>
+        <v>2.0960566124422892</v>
       </c>
       <c r="E30">
-        <v>0.4928408749801747</v>
+        <v>-0.19609423741849241</v>
       </c>
       <c r="F30">
-        <v>2.2986735411191894E-2</v>
+        <v>4.6056612442289424E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B31">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C31">
-        <v>2608.6111490555854</v>
+        <v>2651.458980897306</v>
       </c>
       <c r="D31">
-        <v>4.0495599515414895</v>
+        <v>4.0663502404536924</v>
       </c>
       <c r="E31">
-        <v>-8.8850944414389232E-2</v>
+        <v>0.25898089730617357</v>
       </c>
       <c r="F31">
-        <v>1.9559951541489262E-2</v>
+        <v>1.6350240453692599E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C32">
-        <v>2608.1292139852144</v>
+        <v>2650.8954585169822</v>
       </c>
       <c r="D32">
-        <v>6.0328244182423019</v>
+        <v>6.0431877695326444</v>
       </c>
       <c r="E32">
-        <v>-0.57078601478542623</v>
+        <v>-0.30454148301760142</v>
       </c>
       <c r="F32">
-        <v>3.2824418242301867E-2</v>
+        <v>-6.8122304673554623E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C33">
-        <v>2609.0685101361951</v>
+        <v>2652.0094167679313</v>
       </c>
       <c r="D33">
-        <v>8.0518166969344396</v>
+        <v>8.0198943539909902</v>
       </c>
       <c r="E33">
-        <v>0.36851013619525474</v>
+        <v>0.80941676793145234</v>
       </c>
       <c r="F33">
-        <v>5.1816696934439577E-2</v>
+        <v>-3.0105646009010556E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B34">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C34">
-        <v>2608.3139623651678</v>
+        <v>2651.3786074758027</v>
       </c>
       <c r="D34">
-        <v>10.042770141118059</v>
+        <v>9.9807096564488269</v>
       </c>
       <c r="E34">
-        <v>-0.38603763483206421</v>
+        <v>0.17860747580289171</v>
       </c>
       <c r="F34">
-        <v>7.2770141118057907E-2</v>
+        <v>-6.9290343551173805E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="C35">
-        <v>2609.4025139384748</v>
+        <v>2652.3504405445292</v>
       </c>
       <c r="D35">
-        <v>12.069757928092955</v>
+        <v>11.946823344646122</v>
       </c>
       <c r="E35">
-        <v>0.70251393847502186</v>
+        <v>1.1504405445293742</v>
       </c>
       <c r="F35">
-        <v>6.9757928092954558E-2</v>
+        <v>-0.1031766553538791</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B36">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="C36">
-        <v>2608.8514859528527</v>
+        <v>2651.8714120758077</v>
       </c>
       <c r="D36">
-        <v>14.04825919996976</v>
+        <v>13.883665941908234</v>
       </c>
       <c r="E36">
-        <v>0.15148595285290867</v>
+        <v>0.67141207580789342</v>
       </c>
       <c r="F36">
-        <v>9.8259199969760402E-2</v>
+        <v>-0.16633405809176693</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2608.6999999999998</v>
+        <v>2651.2</v>
       </c>
       <c r="B37">
-        <v>15.97</v>
+        <v>16.07</v>
       </c>
       <c r="C37">
-        <v>2610.3872104696093</v>
+        <v>2653.9916157169273</v>
       </c>
       <c r="D37">
-        <v>16.104895435107906</v>
+        <v>15.828578866918335</v>
       </c>
       <c r="E37">
-        <v>1.6872104696094539</v>
+        <v>2.7916157169274811</v>
       </c>
       <c r="F37">
-        <v>0.13489543510790547</v>
+        <v>-0.24142113308166557</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2709.2753280145284</v>
+        <v>2752.5546110316418</v>
       </c>
       <c r="D38">
-        <v>5.8602868770345979E-3</v>
+        <v>7.0300424331950606E-2</v>
       </c>
       <c r="E38">
-        <v>0.87532801452834974</v>
+        <v>1.6546110316417071</v>
       </c>
       <c r="F38">
-        <v>5.8602868770345979E-3</v>
+        <v>7.0300424331950606E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B39">
-        <v>-16.07</v>
+        <v>-15.92</v>
       </c>
       <c r="C39">
-        <v>2710.4708805717673</v>
+        <v>2752.2511655258936</v>
       </c>
       <c r="D39">
-        <v>-15.961182789659311</v>
+        <v>-16.018919271105744</v>
       </c>
       <c r="E39">
-        <v>2.0708805717672476</v>
+        <v>1.3511655258935207</v>
       </c>
       <c r="F39">
-        <v>0.10881721034068903</v>
+        <v>-9.89192711057445E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B40">
-        <v>-14.02</v>
+        <v>-14.08</v>
       </c>
       <c r="C40">
-        <v>2708.4190996669281</v>
+        <v>2751.974624539037</v>
       </c>
       <c r="D40">
-        <v>-13.910321731645444</v>
+        <v>-14.116266949218213</v>
       </c>
       <c r="E40">
-        <v>1.9099666928013903E-2</v>
+        <v>1.074624539036904</v>
       </c>
       <c r="F40">
-        <v>0.10967826835455519</v>
+        <v>-3.6266949218212829E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B41">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="C41">
-        <v>2708.0680194928395</v>
+        <v>2750.2005753073504</v>
       </c>
       <c r="D41">
-        <v>-11.901482919390146</v>
+        <v>-12.064144295578705</v>
       </c>
       <c r="E41">
-        <v>-0.3319805071605515</v>
+        <v>-0.69942469264969986</v>
       </c>
       <c r="F41">
-        <v>7.8517080609854517E-2</v>
+        <v>-3.4144295578705908E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B42">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C42">
-        <v>2708.1304853990982</v>
+        <v>2751.1450629522551</v>
       </c>
       <c r="D42">
-        <v>-9.9305688798375531</v>
+        <v>-10.032893421283854</v>
       </c>
       <c r="E42">
-        <v>-0.26951460090185719</v>
+        <v>0.24506295225501162</v>
       </c>
       <c r="F42">
-        <v>6.9431120162446902E-2</v>
+        <v>-2.8934212838542805E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B43">
-        <v>-7.97</v>
+        <v>-8</v>
       </c>
       <c r="C43">
-        <v>2709.0827383481169</v>
+        <v>2750.9971437117197</v>
       </c>
       <c r="D43">
-        <v>-7.9344737028155672</v>
+        <v>-7.9860214182731379</v>
       </c>
       <c r="E43">
-        <v>0.6827383481167999</v>
+        <v>9.7143711719581916E-2</v>
       </c>
       <c r="F43">
-        <v>3.5526297184432565E-2</v>
+        <v>1.397858172686206E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B44">
         <v>-6</v>
       </c>
       <c r="C44">
-        <v>2708.7915818182992</v>
+        <v>2750.6847843391811</v>
       </c>
       <c r="D44">
-        <v>-5.9423158679150152</v>
+        <v>-5.9791984871781958</v>
       </c>
       <c r="E44">
-        <v>0.39158181829907335</v>
+        <v>-0.21521566081901256</v>
       </c>
       <c r="F44">
-        <v>5.7684132084984796E-2</v>
+        <v>2.0801512821804202E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B45">
         <v>-3.97</v>
       </c>
       <c r="C45">
-        <v>2709.3525321590128</v>
+        <v>2751.7618576614268</v>
       </c>
       <c r="D45">
-        <v>-3.9242148712064946</v>
+        <v>-3.947234325114481</v>
       </c>
       <c r="E45">
-        <v>0.95253215901266231</v>
+        <v>0.86185766142671127</v>
       </c>
       <c r="F45">
-        <v>4.5785128793505603E-2</v>
+        <v>2.2765674885519172E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B46">
         <v>-1.97</v>
       </c>
       <c r="C46">
-        <v>2708.7663694028042</v>
+        <v>2750.9454611126616</v>
       </c>
       <c r="D46">
-        <v>-1.9545818931547572</v>
+        <v>-1.9371946482582416</v>
       </c>
       <c r="E46">
-        <v>0.3663694028041391</v>
+        <v>4.5461112661541847E-2</v>
       </c>
       <c r="F46">
-        <v>1.5418106845242807E-2</v>
+        <v>3.280535174175836E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C47">
-        <v>2709.2330207668915</v>
+        <v>2752.6938130424364</v>
       </c>
       <c r="D47">
-        <v>5.2247904251542437E-2</v>
+        <v>7.38424168882372E-2</v>
       </c>
       <c r="E47">
-        <v>0.83302076689142268</v>
+        <v>1.7938130424363408</v>
       </c>
       <c r="F47">
-        <v>5.2247904251542437E-2</v>
+        <v>4.3842416888237201E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B48">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C48">
-        <v>2709.2961959454378</v>
+        <v>2750.095224772344</v>
       </c>
       <c r="D48">
-        <v>2.0618310847067889</v>
+        <v>2.0851771986115542</v>
       </c>
       <c r="E48">
-        <v>0.89619594543773928</v>
+        <v>-0.80477522765613685</v>
       </c>
       <c r="F48">
-        <v>3.1831084706789081E-2</v>
+        <v>3.5177198611554328E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B49">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C49">
-        <v>2710.1270720741563</v>
+        <v>2751.2106976809932</v>
       </c>
       <c r="D49">
-        <v>4.0666533783561372</v>
+        <v>4.0683058948945154</v>
       </c>
       <c r="E49">
-        <v>1.72707207415624</v>
+        <v>0.31069768099314388</v>
       </c>
       <c r="F49">
-        <v>3.6653378356136912E-2</v>
+        <v>1.8305894894515617E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B50">
-        <v>5.97</v>
+        <v>6.05</v>
       </c>
       <c r="C50">
-        <v>2710.069076886009</v>
+        <v>2751.2925404470197</v>
       </c>
       <c r="D50">
-        <v>6.0368880524264972</v>
+        <v>6.060083031638114</v>
       </c>
       <c r="E50">
-        <v>1.669076886008952</v>
+        <v>0.3925404470196554</v>
       </c>
       <c r="F50">
-        <v>6.6888052426497424E-2</v>
+        <v>1.0083031638114193E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B51">
         <v>8.0299999999999994</v>
       </c>
       <c r="C51">
-        <v>2709.2127479972951</v>
+        <v>2751.2717055156118</v>
       </c>
       <c r="D51">
-        <v>8.0703991644884567</v>
+        <v>8.0382823968011987</v>
       </c>
       <c r="E51">
-        <v>0.81274799729499136</v>
+        <v>0.37170551561166576</v>
       </c>
       <c r="F51">
-        <v>4.0399164488457373E-2</v>
+        <v>8.2823968011993543E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B52">
-        <v>9.9700000000000006</v>
+        <v>10.07</v>
       </c>
       <c r="C52">
-        <v>2707.7939989016654</v>
+        <v>2750.3014222176157</v>
       </c>
       <c r="D52">
-        <v>10.059036888775791</v>
+        <v>10.022217945277127</v>
       </c>
       <c r="E52">
-        <v>-0.60600109833467286</v>
+        <v>-0.59857778238438186</v>
       </c>
       <c r="F52">
-        <v>8.9036888775790857E-2</v>
+        <v>-4.7782054722873113E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>12.05</v>
       </c>
       <c r="C53">
-        <v>2710.4035669986301</v>
+        <v>2751.2502073186106</v>
       </c>
       <c r="D53">
-        <v>12.081876565826876</v>
+        <v>11.963311556542061</v>
       </c>
       <c r="E53">
-        <v>2.0035669986300491</v>
+        <v>0.35020731861050081</v>
       </c>
       <c r="F53">
-        <v>8.1876565826876302E-2</v>
+        <v>-8.6688443457939357E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B54">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="C54">
-        <v>2707.4875171942308</v>
+        <v>2751.901163169422</v>
       </c>
       <c r="D54">
-        <v>14.047392143582327</v>
+        <v>13.911849855807114</v>
       </c>
       <c r="E54">
-        <v>-0.91248280576928664</v>
+        <v>1.0011631694219432</v>
       </c>
       <c r="F54">
-        <v>9.7392143582327506E-2</v>
+        <v>-0.13815014419288651</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2708.4</v>
+        <v>2750.9</v>
       </c>
       <c r="B55">
-        <v>15.97</v>
+        <v>16.07</v>
       </c>
       <c r="C55">
-        <v>2709.7302666813298</v>
+        <v>2752.8875014864834</v>
       </c>
       <c r="D55">
-        <v>16.075660163915636</v>
+        <v>15.8418613078624</v>
       </c>
       <c r="E55">
-        <v>1.3302666813297037</v>
+        <v>1.9875014864833247</v>
       </c>
       <c r="F55">
-        <v>0.10566016391563515</v>
+        <v>-0.22813869213760007</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2809.7285787594728</v>
+        <v>2849.698464057361</v>
       </c>
       <c r="D56">
-        <v>1.1205040291840275E-2</v>
+        <v>6.1820605825880406E-2</v>
       </c>
       <c r="E56">
-        <v>1.62857875947293</v>
+        <v>-0.90153594263892955</v>
       </c>
       <c r="F56">
-        <v>1.1205040291840275E-2</v>
+        <v>6.1820605825880406E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B57">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="C57">
-        <v>2809.4014805974111</v>
+        <v>2850.6605043949066</v>
       </c>
       <c r="D57">
-        <v>-15.94448602386708</v>
+        <v>-16.031436806250568</v>
       </c>
       <c r="E57">
-        <v>1.3014805974112278</v>
+        <v>6.0504394906729431E-2</v>
       </c>
       <c r="F57">
-        <v>0.12551397613292004</v>
+        <v>-0.13143680625056753</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B58">
-        <v>-14.02</v>
+        <v>-14.1</v>
       </c>
       <c r="C58">
-        <v>2808.5281569325057</v>
+        <v>2850.78801203801</v>
       </c>
       <c r="D58">
-        <v>-13.891598906773048</v>
+        <v>-14.163826258688504</v>
       </c>
       <c r="E58">
-        <v>0.42815693250577169</v>
+        <v>0.18801203801012889</v>
       </c>
       <c r="F58">
-        <v>0.1284010932269517</v>
+        <v>-6.3826258688504112E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B59">
-        <v>-11.98</v>
+        <v>-12.03</v>
       </c>
       <c r="C59">
-        <v>2808.9451324221336</v>
+        <v>2849.9963770824434</v>
       </c>
       <c r="D59">
-        <v>-11.886745500487303</v>
+        <v>-12.079692693903556</v>
       </c>
       <c r="E59">
-        <v>0.84513242213370177</v>
+        <v>-0.60362291755654951</v>
       </c>
       <c r="F59">
-        <v>9.3254499512697819E-2</v>
+        <v>-4.9692693903557128E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B60">
-        <v>-9.9700000000000006</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="C60">
-        <v>2809.0537573254437</v>
+        <v>2851.3366873107043</v>
       </c>
       <c r="D60">
-        <v>-9.9080670069950028</v>
+        <v>-10.036960743960593</v>
       </c>
       <c r="E60">
-        <v>0.95375732544380298</v>
+        <v>0.73668731070438298</v>
       </c>
       <c r="F60">
-        <v>6.1932993004997883E-2</v>
+        <v>-6.9607439605938737E-3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B61">
         <v>-8</v>
       </c>
       <c r="C61">
-        <v>2808.7745686998737</v>
+        <v>2850.8513676028942</v>
       </c>
       <c r="D61">
-        <v>-7.9357296271842035</v>
+        <v>-7.9953511721609916</v>
       </c>
       <c r="E61">
-        <v>0.67456869987381651</v>
+        <v>0.25136760289433369</v>
       </c>
       <c r="F61">
-        <v>6.4270372815796506E-2</v>
+        <v>4.6488278390084403E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B62">
         <v>-6</v>
       </c>
       <c r="C62">
-        <v>2809.1919921936255</v>
+        <v>2851.3853451701957</v>
       </c>
       <c r="D62">
-        <v>-5.9300171141513998</v>
+        <v>-5.9883990930326236</v>
       </c>
       <c r="E62">
-        <v>1.0919921936256287</v>
+        <v>0.78534517019579653</v>
       </c>
       <c r="F62">
-        <v>6.998288584860024E-2</v>
+        <v>1.1600906967376368E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B63">
         <v>-3.97</v>
       </c>
       <c r="C63">
-        <v>2809.1954162164598</v>
+        <v>2849.5072166991599</v>
       </c>
       <c r="D63">
-        <v>-3.9280609126634971</v>
+        <v>-3.9537112324891295</v>
       </c>
       <c r="E63">
-        <v>1.0954162164598529</v>
+        <v>-1.092783300839983</v>
       </c>
       <c r="F63">
-        <v>4.1939087336503089E-2</v>
+        <v>1.6288767510870716E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B64">
         <v>-1.97</v>
       </c>
       <c r="C64">
-        <v>2809.5410821833784</v>
+        <v>2850.2712493232343</v>
       </c>
       <c r="D64">
-        <v>-1.9554559994892287</v>
+        <v>-1.9443514404697608</v>
       </c>
       <c r="E64">
-        <v>1.4410821833785121</v>
+        <v>-0.32875067676559411</v>
       </c>
       <c r="F64">
-        <v>1.4544000510771316E-2</v>
+        <v>2.5648559530239146E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C65">
-        <v>2809.6663620170102</v>
+        <v>2849.8017757565081</v>
       </c>
       <c r="D65">
-        <v>5.140408736504861E-2</v>
+        <v>6.9805910677380109E-2</v>
       </c>
       <c r="E65">
-        <v>1.5663620170103059</v>
+        <v>-0.79822424349185894</v>
       </c>
       <c r="F65">
-        <v>5.140408736504861E-2</v>
+        <v>3.980591067738011E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B66">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C66">
-        <v>2809.3045442679136</v>
+        <v>2852.061410251883</v>
       </c>
       <c r="D66">
-        <v>2.0648315212319841</v>
+        <v>2.0826618308294647</v>
       </c>
       <c r="E66">
-        <v>1.2045442679136613</v>
+        <v>1.4614102518830805</v>
       </c>
       <c r="F66">
-        <v>3.4831521231984297E-2</v>
+        <v>3.2661830829464833E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B67">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C67">
-        <v>2809.4394897214256</v>
+        <v>2851.3700323698909</v>
       </c>
       <c r="D67">
-        <v>4.0579048641296831</v>
+        <v>4.0710972529150453</v>
       </c>
       <c r="E67">
-        <v>1.3394897214257071</v>
+        <v>0.77003236989094148</v>
       </c>
       <c r="F67">
-        <v>2.7904864129682849E-2</v>
+        <v>2.1097252915045495E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C68">
-        <v>2810.0369420501324</v>
+        <v>2850.5035472096883</v>
       </c>
       <c r="D68">
-        <v>6.0338053508762535</v>
+        <v>6.0506915967108963</v>
       </c>
       <c r="E68">
-        <v>1.9369420501325294</v>
+        <v>-9.6452790311559511E-2</v>
       </c>
       <c r="F68">
-        <v>3.380535087625347E-2</v>
+        <v>6.9159671089646935E-4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C69">
-        <v>2809.2928625232089</v>
+        <v>2849.1931009294449</v>
       </c>
       <c r="D69">
-        <v>8.058979192699983</v>
+        <v>8.0319673885510685</v>
       </c>
       <c r="E69">
-        <v>1.1928625232089871</v>
+        <v>-1.4068990705550277</v>
       </c>
       <c r="F69">
-        <v>5.8979192699982974E-2</v>
+        <v>-1.8032611448932201E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B70">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C70">
-        <v>2807.4105434493031</v>
+        <v>2848.8504450373875</v>
       </c>
       <c r="D70">
-        <v>10.043362491561632</v>
+        <v>10.00874570844446</v>
       </c>
       <c r="E70">
-        <v>-0.68945655069683198</v>
+        <v>-1.7495549626123648</v>
       </c>
       <c r="F70">
-        <v>7.3362491561631771E-2</v>
+        <v>-4.1254291555540945E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="C71">
-        <v>2808.6270493169859</v>
+        <v>2850.6826121098511</v>
       </c>
       <c r="D71">
-        <v>12.071871619323558</v>
+        <v>11.973119745757407</v>
       </c>
       <c r="E71">
-        <v>0.52704931698599466</v>
+        <v>8.2612109851197602E-2</v>
       </c>
       <c r="F71">
-        <v>7.1871619323557567E-2</v>
+        <v>-9.6880254242593722E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B72">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="C72">
-        <v>2806.3910527468088</v>
+        <v>2850.2189335585667</v>
       </c>
       <c r="D72">
-        <v>14.047676003786981</v>
+        <v>13.897068706440187</v>
       </c>
       <c r="E72">
-        <v>-1.7089472531911269</v>
+        <v>-0.38106644143317681</v>
       </c>
       <c r="F72">
-        <v>9.7676003786981269E-2</v>
+        <v>-0.1529312935598135</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2808.1</v>
+        <v>2850.6</v>
       </c>
       <c r="B73">
-        <v>15.97</v>
+        <v>16.05</v>
       </c>
       <c r="C73">
-        <v>2807.6333212000595</v>
+        <v>2851.1674539262453</v>
       </c>
       <c r="D73">
-        <v>16.081099932416073</v>
+        <v>15.83979557206149</v>
       </c>
       <c r="E73">
-        <v>-0.46667879994038231</v>
+        <v>0.56745392624543456</v>
       </c>
       <c r="F73">
-        <v>0.11109993241607263</v>
+        <v>-0.21020442793851046</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2908.6086705889347</v>
+        <v>2951.8717793615788</v>
       </c>
       <c r="D74">
-        <v>5.0486501129357172E-4</v>
+        <v>5.5237457565151332E-2</v>
       </c>
       <c r="E74">
-        <v>0.80867058893454669</v>
+        <v>1.5717793615785922</v>
       </c>
       <c r="F74">
-        <v>5.0486501129357172E-4</v>
+        <v>5.5237457565151332E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B75">
-        <v>-16.07</v>
+        <v>-15.93</v>
       </c>
       <c r="C75">
-        <v>2909.1979592598918</v>
+        <v>2949.0705377514178</v>
       </c>
       <c r="D75">
-        <v>-15.922637807770641</v>
+        <v>-16.045905237836202</v>
       </c>
       <c r="E75">
-        <v>1.3979592598916497</v>
+        <v>-1.229462248582422</v>
       </c>
       <c r="F75">
-        <v>0.14736219222935887</v>
+        <v>-0.11590523783620199</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B76">
-        <v>-14.02</v>
+        <v>-14.07</v>
       </c>
       <c r="C76">
-        <v>2907.9118727701602</v>
+        <v>2948.8704244890132</v>
       </c>
       <c r="D76">
-        <v>-13.868016417959774</v>
+        <v>-14.154887466729056</v>
       </c>
       <c r="E76">
-        <v>0.11187277016006192</v>
+        <v>-1.4295755109869788</v>
       </c>
       <c r="F76">
-        <v>0.15198358204022533</v>
+        <v>-8.4887466729055561E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B77">
-        <v>-11.98</v>
+        <v>-12.05</v>
       </c>
       <c r="C77">
-        <v>2907.2008246403379</v>
+        <v>2949.3621467031676</v>
       </c>
       <c r="D77">
-        <v>-11.870648982198743</v>
+        <v>-12.096781973620436</v>
       </c>
       <c r="E77">
-        <v>-0.59917535966224023</v>
+        <v>-0.93785329683259988</v>
       </c>
       <c r="F77">
-        <v>0.10935101780125756</v>
+        <v>-4.6781973620435124E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B78">
         <v>-10</v>
       </c>
       <c r="C78">
-        <v>2907.583435054873</v>
+        <v>2949.8118228326603</v>
       </c>
       <c r="D78">
-        <v>-9.8973465909613907</v>
+        <v>-10.035653154714447</v>
       </c>
       <c r="E78">
-        <v>-0.21656494512717472</v>
+        <v>-0.48817716733992711</v>
       </c>
       <c r="F78">
-        <v>0.10265340903860931</v>
+        <v>-3.565315471444741E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B79">
-        <v>-7.97</v>
+        <v>-8</v>
       </c>
       <c r="C79">
-        <v>2908.0939183527425</v>
+        <v>2948.9411692724439</v>
       </c>
       <c r="D79">
-        <v>-7.911195693469752</v>
+        <v>-8.0277691235115487</v>
       </c>
       <c r="E79">
-        <v>0.29391835274236655</v>
+        <v>-1.3588307275563238</v>
       </c>
       <c r="F79">
-        <v>5.8804306530247707E-2</v>
+        <v>-2.7769123511548699E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B80">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="C80">
-        <v>2908.7810439840673</v>
+        <v>2949.4761561834607</v>
       </c>
       <c r="D80">
-        <v>-5.9487383635309161</v>
+        <v>-5.9884173129591804</v>
       </c>
       <c r="E80">
-        <v>0.98104398406712789</v>
+        <v>-0.82384381653946548</v>
       </c>
       <c r="F80">
-        <v>5.1261636469083882E-2</v>
+        <v>4.1582687040819799E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B81">
-        <v>-3.97</v>
+        <v>-3.98</v>
       </c>
       <c r="C81">
-        <v>2909.2398302706438</v>
+        <v>2951.3357664683622</v>
       </c>
       <c r="D81">
-        <v>-3.9338700657396646</v>
+        <v>-3.9394854515217315</v>
       </c>
       <c r="E81">
-        <v>1.439830270643597</v>
+        <v>1.0357664683619987</v>
       </c>
       <c r="F81">
-        <v>3.6129934260335617E-2</v>
+        <v>4.0514548478268519E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B82">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="C82">
-        <v>2909.6132796771476</v>
+        <v>2952.3638357247528</v>
       </c>
       <c r="D82">
-        <v>-1.9453767608284738</v>
+        <v>-1.932157757880469</v>
       </c>
       <c r="E82">
-        <v>1.8132796771474204</v>
+        <v>2.0638357247526073</v>
       </c>
       <c r="F82">
-        <v>2.4623239171526201E-2</v>
+        <v>4.7842242119531031E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C83">
-        <v>2908.9738235898094</v>
+        <v>2951.8859454191734</v>
       </c>
       <c r="D83">
-        <v>5.3573214086851791E-2</v>
+        <v>9.0548278140733005E-2</v>
       </c>
       <c r="E83">
-        <v>1.1738235898092171</v>
+        <v>1.5859454191731857</v>
       </c>
       <c r="F83">
-        <v>5.3573214086851791E-2</v>
+        <v>4.0548278140733002E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B84">
-        <v>2.0299999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="C84">
-        <v>2909.7152126348415</v>
+        <v>2950.0459983001774</v>
       </c>
       <c r="D84">
-        <v>2.0707874425523221</v>
+        <v>2.0905924410491923</v>
       </c>
       <c r="E84">
-        <v>1.9152126348412821</v>
+        <v>-0.25400169982276566</v>
       </c>
       <c r="F84">
-        <v>4.0787442552322251E-2</v>
+        <v>7.0592441049192267E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B85">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="C85">
-        <v>2909.2075898785383</v>
+        <v>2948.8963118008191</v>
       </c>
       <c r="D85">
-        <v>4.0484985014001493</v>
+        <v>4.0916558238812808</v>
       </c>
       <c r="E85">
-        <v>1.4075898785381469</v>
+        <v>-1.4036881991810333</v>
       </c>
       <c r="F85">
-        <v>1.8498501400149081E-2</v>
+        <v>4.1655823881280973E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>6.07</v>
       </c>
       <c r="C86">
-        <v>2909.768918610785</v>
+        <v>2949.8687926728803</v>
       </c>
       <c r="D86">
-        <v>6.0357081087029547</v>
+        <v>6.0901518602262623</v>
       </c>
       <c r="E86">
-        <v>1.96891861078484</v>
+        <v>-0.4312073271198642</v>
       </c>
       <c r="F86">
-        <v>3.5708108702954711E-2</v>
+        <v>2.0151860226262031E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C87">
-        <v>2909.1676174494542</v>
+        <v>2950.1357555227682</v>
       </c>
       <c r="D87">
-        <v>8.0495666005615671</v>
+        <v>8.0410114815659597</v>
       </c>
       <c r="E87">
-        <v>1.3676174494539737</v>
+        <v>-0.16424447723193225</v>
       </c>
       <c r="F87">
-        <v>4.9566600561567142E-2</v>
+        <v>-8.9885184340410262E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B88">
-        <v>9.9700000000000006</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C88">
-        <v>2907.2425110569711</v>
+        <v>2949.0549954180869</v>
       </c>
       <c r="D88">
-        <v>10.054190696339756</v>
+        <v>10.021694332605968</v>
       </c>
       <c r="E88">
-        <v>-0.55748894302905683</v>
+        <v>-1.2450045819132356</v>
       </c>
       <c r="F88">
-        <v>8.4190696339755178E-2</v>
+        <v>-2.8305667394032952E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="C89">
-        <v>2907.425513916839</v>
+        <v>2949.0547948977746</v>
       </c>
       <c r="D89">
-        <v>12.064224435978936</v>
+        <v>11.982421649728199</v>
       </c>
       <c r="E89">
-        <v>-0.37448608316117316</v>
+        <v>-1.2452051022255546</v>
       </c>
       <c r="F89">
-        <v>6.4224435978935901E-2</v>
+        <v>-8.7578350271801497E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B90">
-        <v>13.95</v>
+        <v>14.05</v>
       </c>
       <c r="C90">
-        <v>2905.9257666196941</v>
+        <v>2948.9188031182339</v>
       </c>
       <c r="D90">
-        <v>14.045055161564061</v>
+        <v>13.913419412645602</v>
       </c>
       <c r="E90">
-        <v>-1.8742333803061229</v>
+        <v>-1.3811968817663001</v>
       </c>
       <c r="F90">
-        <v>9.5055161564062018E-2</v>
+        <v>-0.13658058735439838</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2907.8</v>
+        <v>2950.3</v>
       </c>
       <c r="B91">
-        <v>15.97</v>
+        <v>16.05</v>
       </c>
       <c r="C91">
-        <v>2908.0823592892561</v>
+        <v>2949.748201121798</v>
       </c>
       <c r="D91">
-        <v>16.088104303202353</v>
+        <v>15.870388945122615</v>
       </c>
       <c r="E91">
-        <v>0.28235928925596454</v>
+        <v>-0.5517988782021348</v>
       </c>
       <c r="F91">
-        <v>0.11810430320235277</v>
+        <v>-0.17961105487738571</v>
       </c>
     </row>
   </sheetData>

--- a/cam6_validation_result.xlsx
+++ b/cam6_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441B408-6144-4B62-B11A-BF359829232B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7BFAB-2ACA-4FA6-9900-05FC992495D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{609D8761-8874-463C-A2ED-735605C29000}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{609D8761-8874-463C-A2ED-735605C29000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,274 +219,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.82018331663721256</c:v>
+                  <c:v>0.68248427996377359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61997350810679563</c:v>
+                  <c:v>1.0998936134669748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.19844366415054537</c:v>
+                  <c:v>0.96957603113469304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16304144597643244</c:v>
+                  <c:v>0.2333735291413177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.56088384591612339</c:v>
+                  <c:v>0.85263039489063885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.014438907179283</c:v>
+                  <c:v>1.475625648647565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.82238151022147576</c:v>
+                  <c:v>1.5783120717469501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1036348670695588</c:v>
+                  <c:v>0.58777784644871645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.78775650759962446</c:v>
+                  <c:v>1.2224045425496115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.34683666768796684</c:v>
+                  <c:v>0.8313911724612808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.32765449904263733</c:v>
+                  <c:v>0.10768973504946189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27273587358831719</c:v>
+                  <c:v>1.989515004831901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43596308785572546</c:v>
+                  <c:v>0.91705151941596341</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0884912494484524</c:v>
+                  <c:v>0.73792463495965421</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.61164816169730329</c:v>
+                  <c:v>1.9052842881742436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.39007516819447119</c:v>
+                  <c:v>1.4711473233692232</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3647415242344323</c:v>
+                  <c:v>1.4625778695603913</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3817017070841757</c:v>
+                  <c:v>1.1521285385874762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29347460413964654</c:v>
+                  <c:v>1.3650985351869167</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0059728883866228</c:v>
+                  <c:v>1.9229987159624216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.5198253709240817E-2</c:v>
+                  <c:v>1.8403590440566404</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.35909045920288918</c:v>
+                  <c:v>0.92575643530472007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21258656292320666</c:v>
+                  <c:v>1.5383554786421882</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.12002907229452831</c:v>
+                  <c:v>0.59941940121507287</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6.3522752269818739E-2</c:v>
+                  <c:v>0.855569604055745</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66536246724626835</c:v>
+                  <c:v>6.4877609926043078E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65648334434490607</c:v>
+                  <c:v>0.65759796975362406</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25870377939054379</c:v>
+                  <c:v>1.4054056540303463</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.19609423741849241</c:v>
+                  <c:v>2.1050327429911704</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.25898089730617357</c:v>
+                  <c:v>1.4284844296462325</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.30454148301760142</c:v>
+                  <c:v>1.9529618632413985</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.80941676793145234</c:v>
+                  <c:v>1.1099781715411154</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17860747580289171</c:v>
+                  <c:v>0.38867287858374766</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1504405445293742</c:v>
+                  <c:v>1.3648724132817733</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.67141207580789342</c:v>
+                  <c:v>2.0475395939956798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7916157169274811</c:v>
+                  <c:v>2.1724386277751364</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.6546110316417071</c:v>
+                  <c:v>0.59650654508686785</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3511655258935207</c:v>
+                  <c:v>2.0472247132784105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.074624539036904</c:v>
+                  <c:v>1.468881314293867</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.69942469264969986</c:v>
+                  <c:v>1.1668202491782722</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24506295225501162</c:v>
+                  <c:v>0.93543056591488494</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.7143711719581916E-2</c:v>
+                  <c:v>0.28864443348129498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.21521566081901256</c:v>
+                  <c:v>1.3570487813444743</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.86185766142671127</c:v>
+                  <c:v>0.7500508094608449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.5461112661541847E-2</c:v>
+                  <c:v>1.5010407583404231</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7938130424363408</c:v>
+                  <c:v>0.34433299154534325</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.80477522765613685</c:v>
+                  <c:v>1.3599253711290658</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.31069768099314388</c:v>
+                  <c:v>2.1732505802319793</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3925404470196554</c:v>
+                  <c:v>2.0585032358171702</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.37170551561166576</c:v>
+                  <c:v>1.2030277018357083</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.59857778238438186</c:v>
+                  <c:v>1.5556205588354715</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.35020731861050081</c:v>
+                  <c:v>1.2592289618573886</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0011631694219432</c:v>
+                  <c:v>1.0934303446274498</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.9875014864833247</c:v>
+                  <c:v>2.2617721142714799</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.90153594263892955</c:v>
+                  <c:v>2.1207974653921156</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.0504394906729431E-2</c:v>
+                  <c:v>3.3271456846364345</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.18801203801012889</c:v>
+                  <c:v>1.7357993774594433</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.60362291755654951</c:v>
+                  <c:v>0.74712787276848758</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.73668731070438298</c:v>
+                  <c:v>1.9147780517405408</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.25136760289433369</c:v>
+                  <c:v>1.2676169177384509</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.78534517019579653</c:v>
+                  <c:v>2.1869240763671769</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.092783300839983</c:v>
+                  <c:v>2.1407423263199234</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.32875067676559411</c:v>
+                  <c:v>2.8064184405266133</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.79822424349185894</c:v>
+                  <c:v>1.952923136793288</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4614102518830805</c:v>
+                  <c:v>2.1004919207093735</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.77003236989094148</c:v>
+                  <c:v>1.3538224908552365</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-9.6452790311559511E-2</c:v>
+                  <c:v>1.3640911999223135</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.4068990705550277</c:v>
+                  <c:v>2.5553967550922607</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.7495549626123648</c:v>
+                  <c:v>1.4858883856650209</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.2612109851197602E-2</c:v>
+                  <c:v>1.373263239327116</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.38106644143317681</c:v>
+                  <c:v>0.52738471680413568</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.56745392624543456</c:v>
+                  <c:v>2.990133142182458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.5717793615785922</c:v>
+                  <c:v>1.5115738485201291</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.229462248582422</c:v>
+                  <c:v>3.2111044547505116</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.4295755109869788</c:v>
+                  <c:v>2.1043096354464979</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.93785329683259988</c:v>
+                  <c:v>1.3569691918537501</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.48817716733992711</c:v>
+                  <c:v>2.7572116320234272</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.3588307275563238</c:v>
+                  <c:v>2.8569109669160753</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.82384381653946548</c:v>
+                  <c:v>0.95151013749409685</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0357664683619987</c:v>
+                  <c:v>1.9416270542419625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0638357247526073</c:v>
+                  <c:v>1.0878783633779676</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5859454191731857</c:v>
+                  <c:v>1.7694141658289482</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.25400169982276566</c:v>
+                  <c:v>0.61433654887150624</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.4036881991810333</c:v>
+                  <c:v>3.2636190693574463</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.4312073271198642</c:v>
+                  <c:v>2.0177864637798848</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.16424447723193225</c:v>
+                  <c:v>2.2226334300421513</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.2450045819132356</c:v>
+                  <c:v>0.75114940751745962</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.2452051022255546</c:v>
+                  <c:v>2.0351512666234157</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.3811968817663001</c:v>
+                  <c:v>1.0301453614752063</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.5517988782021348</c:v>
+                  <c:v>3.0157405263548753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,16 +1846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>432708</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1891,7 +1891,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9797143" y="1191986"/>
+              <a:off x="5040086" y="3973286"/>
               <a:ext cx="4569279" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2252,48 +2252,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2550.6798166833628</v>
+        <v>2553.982484279964</v>
       </c>
       <c r="D2">
-        <v>6.4625551420498764E-2</v>
+        <v>-2.6154669532854963E-2</v>
       </c>
       <c r="E2">
-        <v>-0.82018331663721256</v>
+        <v>0.68248427996377359</v>
       </c>
       <c r="F2">
-        <v>6.4625551420498764E-2</v>
+        <v>-2.6154669532854963E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.78545999847793713</v>
+        <v>1.4988084885432877</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B3">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C3">
-        <v>2552.1199735081068</v>
+        <v>2554.3998936134672</v>
       </c>
       <c r="D3">
-        <v>-16.02173267582555</v>
+        <v>-15.993176924183944</v>
       </c>
       <c r="E3">
-        <v>0.61997350810679563</v>
+        <v>1.0998936134669748</v>
       </c>
       <c r="F3">
-        <v>-9.1732675825550558E-2</v>
+        <v>0.10682307581605777</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2304,1780 +2304,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B4">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="C4">
-        <v>2551.3015563358495</v>
+        <v>2554.2695760311349</v>
       </c>
       <c r="D4">
-        <v>-14.129431846346797</v>
+        <v>-13.877018898472851</v>
       </c>
       <c r="E4">
-        <v>-0.19844366415054537</v>
+        <v>0.96957603113469304</v>
       </c>
       <c r="F4">
-        <v>-5.9431846346797101E-2</v>
+        <v>7.2981101527147985E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B5">
-        <v>-12.02</v>
+        <v>-11.95</v>
       </c>
       <c r="C5">
-        <v>2551.6630414459764</v>
+        <v>2553.5333735291415</v>
       </c>
       <c r="D5">
-        <v>-12.066790302233661</v>
+        <v>-11.89780966150528</v>
       </c>
       <c r="E5">
-        <v>0.16304144597643244</v>
+        <v>0.2333735291413177</v>
       </c>
       <c r="F5">
-        <v>-4.6790302233661762E-2</v>
+        <v>5.2190338494719768E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.9555555555555556</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B6">
-        <v>-10.02</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C6">
-        <v>2550.9391161540839</v>
+        <v>2554.1526303948908</v>
       </c>
       <c r="D6">
-        <v>-10.0511599994023</v>
+        <v>-9.9148189643452191</v>
       </c>
       <c r="E6">
-        <v>-0.56088384591612339</v>
+        <v>0.85263039489063885</v>
       </c>
       <c r="F6">
-        <v>-3.1159999402300187E-2</v>
+        <v>3.5181035654780146E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.9875014864833247</v>
+        <v>2.990133142182458</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B7">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="C7">
-        <v>2550.4855610928207</v>
+        <v>2554.7756256486477</v>
       </c>
       <c r="D7">
-        <v>-8.0096664755221489</v>
+        <v>-7.9287173663932773</v>
       </c>
       <c r="E7">
-        <v>-1.014438907179283</v>
+        <v>1.475625648647565</v>
       </c>
       <c r="F7">
-        <v>-9.6664755221489429E-3</v>
+        <v>2.1282633606722889E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B8">
-        <v>-6.03</v>
+        <v>-5.93</v>
       </c>
       <c r="C8">
-        <v>2550.6776184897785</v>
+        <v>2554.8783120717471</v>
       </c>
       <c r="D8">
-        <v>-5.9921872262871636</v>
+        <v>-5.9333199061241482</v>
       </c>
       <c r="E8">
-        <v>-0.82238151022147576</v>
+        <v>1.5783120717469501</v>
       </c>
       <c r="F8">
-        <v>3.7812773712836645E-2</v>
+        <v>-3.3199061241484529E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B9">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="C9">
-        <v>2550.3963651329304</v>
+        <v>2553.8877778464489</v>
       </c>
       <c r="D9">
-        <v>-3.9299308234645762</v>
+        <v>-3.9596396230687736</v>
       </c>
       <c r="E9">
-        <v>-1.1036348670695588</v>
+        <v>0.58777784644871645</v>
       </c>
       <c r="F9">
-        <v>4.0069176535423967E-2</v>
+        <v>-2.9639623068773435E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B10">
         <v>-1.97</v>
       </c>
       <c r="C10">
-        <v>2550.7122434924004</v>
+        <v>2554.5224045425498</v>
       </c>
       <c r="D10">
-        <v>-1.9410508573914969</v>
+        <v>-1.9751597133375822</v>
       </c>
       <c r="E10">
-        <v>-0.78775650759962446</v>
+        <v>1.2224045425496115</v>
       </c>
       <c r="F10">
-        <v>2.894914260850312E-2</v>
+        <v>-5.1597133375822501E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11">
-        <v>2551.153163332312</v>
+        <v>2554.1313911724615</v>
       </c>
       <c r="D11">
-        <v>8.1394689235847459E-2</v>
+        <v>4.9000263625705864E-2</v>
       </c>
       <c r="E11">
-        <v>-0.34683666768796684</v>
+        <v>0.8313911724612808</v>
       </c>
       <c r="F11">
-        <v>3.1394689235847456E-2</v>
+        <v>-2.0999736374294142E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B12">
         <v>2.0299999999999998</v>
       </c>
       <c r="C12">
-        <v>2551.1723455009574</v>
+        <v>2553.4076897350496</v>
       </c>
       <c r="D12">
-        <v>2.0512791097704661</v>
+        <v>2.0232387595858317</v>
       </c>
       <c r="E12">
-        <v>-0.32765449904263733</v>
+        <v>0.10768973504946189</v>
       </c>
       <c r="F12">
-        <v>2.127910977046632E-2</v>
+        <v>-6.7612404141681459E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B13">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C13">
-        <v>2551.7727358735883</v>
+        <v>2555.2895150048321</v>
       </c>
       <c r="D13">
-        <v>4.0475965514298853</v>
+        <v>4.0433854467649395</v>
       </c>
       <c r="E13">
-        <v>0.27273587358831719</v>
+        <v>1.989515004831901</v>
       </c>
       <c r="F13">
-        <v>-2.4034485701145414E-3</v>
+        <v>1.3385446764939246E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B14">
         <v>6.05</v>
       </c>
       <c r="C14">
-        <v>2551.9359630878557</v>
+        <v>2554.2170515194161</v>
       </c>
       <c r="D14">
-        <v>6.0166483348627002</v>
+        <v>6.0693148522959701</v>
       </c>
       <c r="E14">
-        <v>0.43596308785572546</v>
+        <v>0.91705151941596341</v>
       </c>
       <c r="F14">
-        <v>-3.3351665137299591E-2</v>
+        <v>1.9314852295970297E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B15">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="C15">
-        <v>2550.4115087505515</v>
+        <v>2554.0379246349598</v>
       </c>
       <c r="D15">
-        <v>7.9716087448432704</v>
+        <v>8.0745599372263523</v>
       </c>
       <c r="E15">
-        <v>-1.0884912494484524</v>
+        <v>0.73792463495965421</v>
       </c>
       <c r="F15">
-        <v>-7.8391255156730288E-2</v>
+        <v>5.4559937226352773E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B16">
         <v>10.050000000000001</v>
       </c>
       <c r="C16">
-        <v>2550.8883518383027</v>
+        <v>2555.2052842881744</v>
       </c>
       <c r="D16">
-        <v>9.9499673396276762</v>
+        <v>10.078747005997739</v>
       </c>
       <c r="E16">
-        <v>-0.61164816169730329</v>
+        <v>1.9052842881742436</v>
       </c>
       <c r="F16">
-        <v>-0.1000326603723245</v>
+        <v>2.8747005997738384E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B17">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="C17">
-        <v>2551.1099248318055</v>
+        <v>2554.7711473233694</v>
       </c>
       <c r="D17">
-        <v>11.897866904838157</v>
+        <v>12.044299838218206</v>
       </c>
       <c r="E17">
-        <v>-0.39007516819447119</v>
+        <v>1.4711473233692232</v>
       </c>
       <c r="F17">
-        <v>-0.15213309516184381</v>
+        <v>2.4299838218206915E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B18">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="C18">
-        <v>2553.8647415242344</v>
+        <v>2554.7625778695606</v>
       </c>
       <c r="D18">
-        <v>13.845542672789383</v>
+        <v>14.053438167330262</v>
       </c>
       <c r="E18">
-        <v>2.3647415242344323</v>
+        <v>1.4625778695603913</v>
       </c>
       <c r="F18">
-        <v>-0.20445732721061738</v>
+        <v>3.3438167330261948E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2551.5</v>
+        <v>2553.3000000000002</v>
       </c>
       <c r="B19">
         <v>16.07</v>
       </c>
       <c r="C19">
-        <v>2554.8817017070842</v>
+        <v>2554.4521285385877</v>
       </c>
       <c r="D19">
-        <v>15.758234966669027</v>
+        <v>16.04513743372204</v>
       </c>
       <c r="E19">
-        <v>3.3817017070841757</v>
+        <v>1.1521285385874762</v>
       </c>
       <c r="F19">
-        <v>-0.31176503333097294</v>
+        <v>-2.4862566277960241E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2651.4934746041395</v>
+        <v>2654.3650985351869</v>
       </c>
       <c r="D20">
-        <v>7.1929876066565021E-2</v>
+        <v>-1.9462257237167987E-2</v>
       </c>
       <c r="E20">
-        <v>0.29347460413964654</v>
+        <v>1.3650985351869167</v>
       </c>
       <c r="F20">
-        <v>7.1929876066565021E-2</v>
+        <v>-1.9462257237167987E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B21">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C21">
-        <v>2652.2059728883864</v>
+        <v>2654.9229987159624</v>
       </c>
       <c r="D21">
-        <v>-15.996764931332631</v>
+        <v>-15.973623276856921</v>
       </c>
       <c r="E21">
-        <v>1.0059728883866228</v>
+        <v>1.9229987159624216</v>
       </c>
       <c r="F21">
-        <v>-9.6764931332630866E-2</v>
+        <v>0.12637672314308013</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B22">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="C22">
-        <v>2651.1348017462906</v>
+        <v>2654.8403590440566</v>
       </c>
       <c r="D22">
-        <v>-14.123601450968714</v>
+        <v>-13.866403061151491</v>
       </c>
       <c r="E22">
-        <v>-6.5198253709240817E-2</v>
+        <v>1.8403590440566404</v>
       </c>
       <c r="F22">
-        <v>-2.3601450968714133E-2</v>
+        <v>8.3596938848508273E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B23">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="C23">
-        <v>2650.8409095407969</v>
+        <v>2653.9257564353047</v>
       </c>
       <c r="D23">
-        <v>-12.039371772749693</v>
+        <v>-11.896687476162734</v>
       </c>
       <c r="E23">
-        <v>-0.35909045920288918</v>
+        <v>0.92575643530472007</v>
       </c>
       <c r="F23">
-        <v>-9.3717727496933634E-3</v>
+        <v>5.3312523837265147E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B24">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C24">
-        <v>2651.412586562923</v>
+        <v>2654.5383554786422</v>
       </c>
       <c r="D24">
-        <v>-10.013658596244692</v>
+        <v>-9.912150951576189</v>
       </c>
       <c r="E24">
-        <v>0.21258656292320666</v>
+        <v>1.5383554786421882</v>
       </c>
       <c r="F24">
-        <v>1.6341403755307127E-2</v>
+        <v>3.7849048423810316E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B25">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="C25">
-        <v>2651.0799709277053</v>
+        <v>2653.5994194012151</v>
       </c>
       <c r="D25">
-        <v>-7.9812876083531163</v>
+        <v>-7.9249756879090389</v>
       </c>
       <c r="E25">
-        <v>-0.12002907229452831</v>
+        <v>0.59941940121507287</v>
       </c>
       <c r="F25">
-        <v>1.8712391646883653E-2</v>
+        <v>2.5024312090961232E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B26">
-        <v>-6</v>
+        <v>-5.93</v>
       </c>
       <c r="C26">
-        <v>2651.13647724773</v>
+        <v>2653.8555696040557</v>
       </c>
       <c r="D26">
-        <v>-5.9542066250171626</v>
+        <v>-5.9327329547461547</v>
       </c>
       <c r="E26">
-        <v>-6.3522752269818739E-2</v>
+        <v>0.855569604055745</v>
       </c>
       <c r="F26">
-        <v>4.579337498283742E-2</v>
+        <v>-2.7329547461549808E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B27">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="C27">
-        <v>2651.8653624672461</v>
+        <v>2653.064877609926</v>
       </c>
       <c r="D27">
-        <v>-3.9421543088958195</v>
+        <v>-3.9585545493672214</v>
       </c>
       <c r="E27">
-        <v>0.66536246724626835</v>
+        <v>6.4877609926043078E-2</v>
       </c>
       <c r="F27">
-        <v>2.784569110418067E-2</v>
+        <v>-2.8554549367221238E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B28">
         <v>-1.97</v>
       </c>
       <c r="C28">
-        <v>2651.8564833443447</v>
+        <v>2653.6575979697536</v>
       </c>
       <c r="D28">
-        <v>-1.9263341823161284</v>
+        <v>-1.984576103130296</v>
       </c>
       <c r="E28">
-        <v>0.65648334434490607</v>
+        <v>0.65759796975362406</v>
       </c>
       <c r="F28">
-        <v>4.3665817683871566E-2</v>
+        <v>-1.4576103130296003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B29">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C29">
-        <v>2651.4587037793904</v>
+        <v>2654.4054056540303</v>
       </c>
       <c r="D29">
-        <v>8.6046331064085338E-2</v>
+        <v>3.4317598190450986E-2</v>
       </c>
       <c r="E29">
-        <v>0.25870377939054379</v>
+        <v>1.4054056540303463</v>
       </c>
       <c r="F29">
-        <v>5.6046331064085339E-2</v>
+        <v>-3.5682401809549021E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B30">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C30">
-        <v>2651.0039057625813</v>
+        <v>2655.1050327429912</v>
       </c>
       <c r="D30">
-        <v>2.0960566124422892</v>
+        <v>2.0282798998408258</v>
       </c>
       <c r="E30">
-        <v>-0.19609423741849241</v>
+        <v>2.1050327429911704</v>
       </c>
       <c r="F30">
-        <v>4.6056612442289424E-2</v>
+        <v>-1.7201001591740095E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B31">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C31">
-        <v>2651.458980897306</v>
+        <v>2654.4284844296462</v>
       </c>
       <c r="D31">
-        <v>4.0663502404536924</v>
+        <v>4.0484793630439322</v>
       </c>
       <c r="E31">
-        <v>0.25898089730617357</v>
+        <v>1.4284844296462325</v>
       </c>
       <c r="F31">
-        <v>1.6350240453692599E-2</v>
+        <v>1.847936304393194E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B32">
         <v>6.05</v>
       </c>
       <c r="C32">
-        <v>2650.8954585169822</v>
+        <v>2654.9529618632414</v>
       </c>
       <c r="D32">
-        <v>6.0431877695326444</v>
+        <v>6.0680030132923228</v>
       </c>
       <c r="E32">
-        <v>-0.30454148301760142</v>
+        <v>1.9529618632413985</v>
       </c>
       <c r="F32">
-        <v>-6.8122304673554623E-3</v>
+        <v>1.8003013292323011E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B33">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="C33">
-        <v>2652.0094167679313</v>
+        <v>2654.1099781715411</v>
       </c>
       <c r="D33">
-        <v>8.0198943539909902</v>
+        <v>8.0505836312318841</v>
       </c>
       <c r="E33">
-        <v>0.80941676793145234</v>
+        <v>1.1099781715411154</v>
       </c>
       <c r="F33">
-        <v>-3.0105646009010556E-2</v>
+        <v>3.0583631231884567E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B34">
         <v>10.050000000000001</v>
       </c>
       <c r="C34">
-        <v>2651.3786074758027</v>
+        <v>2653.3886728785837</v>
       </c>
       <c r="D34">
-        <v>9.9807096564488269</v>
+        <v>10.075480679664221</v>
       </c>
       <c r="E34">
-        <v>0.17860747580289171</v>
+        <v>0.38867287858374766</v>
       </c>
       <c r="F34">
-        <v>-6.9290343551173805E-2</v>
+        <v>2.5480679664219963E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B35">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="C35">
-        <v>2652.3504405445292</v>
+        <v>2654.3648724132818</v>
       </c>
       <c r="D35">
-        <v>11.946823344646122</v>
+        <v>12.049547504782762</v>
       </c>
       <c r="E35">
-        <v>1.1504405445293742</v>
+        <v>1.3648724132817733</v>
       </c>
       <c r="F35">
-        <v>-0.1031766553538791</v>
+        <v>2.9547504782762246E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B36">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="C36">
-        <v>2651.8714120758077</v>
+        <v>2655.0475395939957</v>
       </c>
       <c r="D36">
-        <v>13.883665941908234</v>
+        <v>14.04327517798694</v>
       </c>
       <c r="E36">
-        <v>0.67141207580789342</v>
+        <v>2.0475395939956798</v>
       </c>
       <c r="F36">
-        <v>-0.16633405809176693</v>
+        <v>2.3275177986940676E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2651.2</v>
+        <v>2653</v>
       </c>
       <c r="B37">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
       <c r="C37">
-        <v>2653.9916157169273</v>
+        <v>2655.1724386277751</v>
       </c>
       <c r="D37">
-        <v>15.828578866918335</v>
+        <v>16.035490499801675</v>
       </c>
       <c r="E37">
-        <v>2.7916157169274811</v>
+        <v>2.1724386277751364</v>
       </c>
       <c r="F37">
-        <v>-0.24142113308166557</v>
+        <v>-1.4509500198325753E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2752.5546110316418</v>
+        <v>2753.2965065450867</v>
       </c>
       <c r="D38">
-        <v>7.0300424331950606E-2</v>
+        <v>-7.7480564187452257E-3</v>
       </c>
       <c r="E38">
-        <v>1.6546110316417071</v>
+        <v>0.59650654508686785</v>
       </c>
       <c r="F38">
-        <v>7.0300424331950606E-2</v>
+        <v>-7.7480564187452257E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B39">
-        <v>-15.92</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C39">
-        <v>2752.2511655258936</v>
+        <v>2754.7472247132782</v>
       </c>
       <c r="D39">
-        <v>-16.018919271105744</v>
+        <v>-15.92195928018443</v>
       </c>
       <c r="E39">
-        <v>1.3511655258935207</v>
+        <v>2.0472247132784105</v>
       </c>
       <c r="F39">
-        <v>-9.89192711057445E-2</v>
+        <v>0.15804071981556866</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B40">
-        <v>-14.08</v>
+        <v>-13.98</v>
       </c>
       <c r="C40">
-        <v>2751.974624539037</v>
+        <v>2754.1688813142937</v>
       </c>
       <c r="D40">
-        <v>-14.116266949218213</v>
+        <v>-13.838593957580127</v>
       </c>
       <c r="E40">
-        <v>1.074624539036904</v>
+        <v>1.468881314293867</v>
       </c>
       <c r="F40">
-        <v>-3.6266949218212829E-2</v>
+        <v>0.14140604241987376</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B41">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="C41">
-        <v>2750.2005753073504</v>
+        <v>2753.8668202491781</v>
       </c>
       <c r="D41">
-        <v>-12.064144295578705</v>
+        <v>-11.851886580200549</v>
       </c>
       <c r="E41">
-        <v>-0.69942469264969986</v>
+        <v>1.1668202491782722</v>
       </c>
       <c r="F41">
-        <v>-3.4144295578705908E-2</v>
+        <v>9.8113419799449986E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B42">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C42">
-        <v>2751.1450629522551</v>
+        <v>2753.6354305659147</v>
       </c>
       <c r="D42">
-        <v>-10.032893421283854</v>
+        <v>-9.8632130161895759</v>
       </c>
       <c r="E42">
-        <v>0.24506295225501162</v>
+        <v>0.93543056591488494</v>
       </c>
       <c r="F42">
-        <v>-2.8934212838542805E-3</v>
+        <v>8.6786983810423379E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B43">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="C43">
-        <v>2750.9971437117197</v>
+        <v>2752.9886444334811</v>
       </c>
       <c r="D43">
-        <v>-7.9860214182731379</v>
+        <v>-7.8752240126223727</v>
       </c>
       <c r="E43">
-        <v>9.7143711719581916E-2</v>
+        <v>0.28864443348129498</v>
       </c>
       <c r="F43">
-        <v>1.397858172686206E-2</v>
+        <v>5.4775987377627011E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B44">
-        <v>-6</v>
+        <v>-5.93</v>
       </c>
       <c r="C44">
-        <v>2750.6847843391811</v>
+        <v>2754.0570487813443</v>
       </c>
       <c r="D44">
-        <v>-5.9791984871781958</v>
+        <v>-5.914621882277193</v>
       </c>
       <c r="E44">
-        <v>-0.21521566081901256</v>
+        <v>1.3570487813444743</v>
       </c>
       <c r="F44">
-        <v>2.0801512821804202E-2</v>
+        <v>1.5378117722806728E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B45">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="C45">
-        <v>2751.7618576614268</v>
+        <v>2753.4500508094607</v>
       </c>
       <c r="D45">
-        <v>-3.947234325114481</v>
+        <v>-3.9361015621572806</v>
       </c>
       <c r="E45">
-        <v>0.86185766142671127</v>
+        <v>0.7500508094608449</v>
       </c>
       <c r="F45">
-        <v>2.2765674885519172E-2</v>
+        <v>-6.1015621572804157E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B46">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="C46">
-        <v>2750.9454611126616</v>
+        <v>2754.2010407583402</v>
       </c>
       <c r="D46">
-        <v>-1.9371946482582416</v>
+        <v>-1.9568451382603584</v>
       </c>
       <c r="E46">
-        <v>4.5461112661541847E-2</v>
+        <v>1.5010407583404231</v>
       </c>
       <c r="F46">
-        <v>3.280535174175836E-2</v>
+        <v>2.3154861739641541E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B47">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C47">
-        <v>2752.6938130424364</v>
+        <v>2753.0443329915452</v>
       </c>
       <c r="D47">
-        <v>7.38424168882372E-2</v>
+        <v>6.1757722003804409E-2</v>
       </c>
       <c r="E47">
-        <v>1.7938130424363408</v>
+        <v>0.34433299154534325</v>
       </c>
       <c r="F47">
-        <v>4.3842416888237201E-2</v>
+        <v>-8.2422779961955975E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B48">
-        <v>2.0499999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="C48">
-        <v>2750.095224772344</v>
+        <v>2754.0599253711289</v>
       </c>
       <c r="D48">
-        <v>2.0851771986115542</v>
+        <v>2.0474010534984415</v>
       </c>
       <c r="E48">
-        <v>-0.80477522765613685</v>
+        <v>1.3599253711290658</v>
       </c>
       <c r="F48">
-        <v>3.5177198611554328E-2</v>
+        <v>2.7401053498441463E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B49">
-        <v>4.05</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C49">
-        <v>2751.2106976809932</v>
+        <v>2754.8732505802318</v>
       </c>
       <c r="D49">
-        <v>4.0683058948945154</v>
+        <v>4.0616218455681095</v>
       </c>
       <c r="E49">
-        <v>0.31069768099314388</v>
+        <v>2.1732505802319793</v>
       </c>
       <c r="F49">
-        <v>1.8305894894515617E-2</v>
+        <v>4.1621845568109883E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B50">
         <v>6.05</v>
       </c>
       <c r="C50">
-        <v>2751.2925404470197</v>
+        <v>2754.758503235817</v>
       </c>
       <c r="D50">
-        <v>6.060083031638114</v>
+        <v>6.0888349059488629</v>
       </c>
       <c r="E50">
-        <v>0.3925404470196554</v>
+        <v>2.0585032358171702</v>
       </c>
       <c r="F50">
-        <v>1.0083031638114193E-2</v>
+        <v>3.8834905948863074E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B51">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="C51">
-        <v>2751.2717055156118</v>
+        <v>2753.9030277018355</v>
       </c>
       <c r="D51">
-        <v>8.0382823968011987</v>
+        <v>8.0777184924572065</v>
       </c>
       <c r="E51">
-        <v>0.37170551561166576</v>
+        <v>1.2030277018357083</v>
       </c>
       <c r="F51">
-        <v>8.2823968011993543E-3</v>
+        <v>2.7718492457205812E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B52">
-        <v>10.07</v>
+        <v>10.02</v>
       </c>
       <c r="C52">
-        <v>2750.3014222176157</v>
+        <v>2754.2556205588353</v>
       </c>
       <c r="D52">
-        <v>10.022217945277127</v>
+        <v>10.072656399060723</v>
       </c>
       <c r="E52">
-        <v>-0.59857778238438186</v>
+        <v>1.5556205588354715</v>
       </c>
       <c r="F52">
-        <v>-4.7782054722873113E-2</v>
+        <v>5.2656399060722947E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B53">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="C53">
-        <v>2751.2502073186106</v>
+        <v>2753.9592289618572</v>
       </c>
       <c r="D53">
-        <v>11.963311556542061</v>
+        <v>12.072216659675707</v>
       </c>
       <c r="E53">
-        <v>0.35020731861050081</v>
+        <v>1.2592289618573886</v>
       </c>
       <c r="F53">
-        <v>-8.6688443457939357E-2</v>
+        <v>5.2216659675707433E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B54">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="C54">
-        <v>2751.901163169422</v>
+        <v>2753.7934303446273</v>
       </c>
       <c r="D54">
-        <v>13.911849855807114</v>
+        <v>14.066811416193094</v>
       </c>
       <c r="E54">
-        <v>1.0011631694219432</v>
+        <v>1.0934303446274498</v>
       </c>
       <c r="F54">
-        <v>-0.13815014419288651</v>
+        <v>4.6811416193094146E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2750.9</v>
+        <v>2752.7</v>
       </c>
       <c r="B55">
-        <v>16.07</v>
+        <v>16.05</v>
       </c>
       <c r="C55">
-        <v>2752.8875014864834</v>
+        <v>2754.9617721142713</v>
       </c>
       <c r="D55">
-        <v>15.8418613078624</v>
+        <v>16.059877265274991</v>
       </c>
       <c r="E55">
-        <v>1.9875014864833247</v>
+        <v>2.2617721142714799</v>
       </c>
       <c r="F55">
-        <v>-0.22813869213760007</v>
+        <v>9.8772652749907763E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2849.698464057361</v>
+        <v>2854.5207974653922</v>
       </c>
       <c r="D56">
-        <v>6.1820605825880406E-2</v>
+        <v>-1.8575328817982784E-2</v>
       </c>
       <c r="E56">
-        <v>-0.90153594263892955</v>
+        <v>2.1207974653921156</v>
       </c>
       <c r="F56">
-        <v>6.1820605825880406E-2</v>
+        <v>-1.8575328817982784E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B57">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C57">
-        <v>2850.6605043949066</v>
+        <v>2855.7271456846365</v>
       </c>
       <c r="D57">
-        <v>-16.031436806250568</v>
+        <v>-15.961947596672047</v>
       </c>
       <c r="E57">
-        <v>6.0504394906729431E-2</v>
+        <v>3.3271456846364345</v>
       </c>
       <c r="F57">
-        <v>-0.13143680625056753</v>
+        <v>0.13805240332795421</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B58">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="C58">
-        <v>2850.78801203801</v>
+        <v>2854.1357993774595</v>
       </c>
       <c r="D58">
-        <v>-14.163826258688504</v>
+        <v>-13.847799564209296</v>
       </c>
       <c r="E58">
-        <v>0.18801203801012889</v>
+        <v>1.7357993774594433</v>
       </c>
       <c r="F58">
-        <v>-6.3826258688504112E-2</v>
+        <v>0.10220043579070293</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B59">
-        <v>-12.03</v>
+        <v>-11.95</v>
       </c>
       <c r="C59">
-        <v>2849.9963770824434</v>
+        <v>2853.1471278727686</v>
       </c>
       <c r="D59">
-        <v>-12.079692693903556</v>
+        <v>-11.886875440317215</v>
       </c>
       <c r="E59">
-        <v>-0.60362291755654951</v>
+        <v>0.74712787276848758</v>
       </c>
       <c r="F59">
-        <v>-4.9692693903557128E-2</v>
+        <v>6.3124559682783854E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B60">
-        <v>-10.029999999999999</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C60">
-        <v>2851.3366873107043</v>
+        <v>2854.3147780517406</v>
       </c>
       <c r="D60">
-        <v>-10.036960743960593</v>
+        <v>-9.9041739039358507</v>
       </c>
       <c r="E60">
-        <v>0.73668731070438298</v>
+        <v>1.9147780517405408</v>
       </c>
       <c r="F60">
-        <v>-6.9607439605938737E-3</v>
+        <v>4.5826096064148558E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B61">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="C61">
-        <v>2850.8513676028942</v>
+        <v>2853.6676169177385</v>
       </c>
       <c r="D61">
-        <v>-7.9953511721609916</v>
+        <v>-7.9195626388305476</v>
       </c>
       <c r="E61">
-        <v>0.25136760289433369</v>
+        <v>1.2676169177384509</v>
       </c>
       <c r="F61">
-        <v>4.6488278390084403E-3</v>
+        <v>1.0437361169452153E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B62">
-        <v>-6</v>
+        <v>-5.95</v>
       </c>
       <c r="C62">
-        <v>2851.3853451701957</v>
+        <v>2854.5869240763673</v>
       </c>
       <c r="D62">
-        <v>-5.9883990930326236</v>
+        <v>-5.964724843299158</v>
       </c>
       <c r="E62">
-        <v>0.78534517019579653</v>
+        <v>2.1869240763671769</v>
       </c>
       <c r="F62">
-        <v>1.1600906967376368E-2</v>
+        <v>-1.4724843299157797E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B63">
-        <v>-3.97</v>
+        <v>-3.93</v>
       </c>
       <c r="C63">
-        <v>2849.5072166991599</v>
+        <v>2854.54074232632</v>
       </c>
       <c r="D63">
-        <v>-3.9537112324891295</v>
+        <v>-3.9615492882538024</v>
       </c>
       <c r="E63">
-        <v>-1.092783300839983</v>
+        <v>2.1407423263199234</v>
       </c>
       <c r="F63">
-        <v>1.6288767510870716E-2</v>
+        <v>-3.154928825380221E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B64">
-        <v>-1.97</v>
+        <v>-1.95</v>
       </c>
       <c r="C64">
-        <v>2850.2712493232343</v>
+        <v>2855.2064184405267</v>
       </c>
       <c r="D64">
-        <v>-1.9443514404697608</v>
+        <v>-1.9854618991936812</v>
       </c>
       <c r="E64">
-        <v>-0.32875067676559411</v>
+        <v>2.8064184405266133</v>
       </c>
       <c r="F64">
-        <v>2.5648559530239146E-2</v>
+        <v>-3.5461899193681257E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B65">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C65">
-        <v>2849.8017757565081</v>
+        <v>2854.3529231367934</v>
       </c>
       <c r="D65">
-        <v>6.9805910677380109E-2</v>
+        <v>2.0541890634276569E-2</v>
       </c>
       <c r="E65">
-        <v>-0.79822424349185894</v>
+        <v>1.952923136793288</v>
       </c>
       <c r="F65">
-        <v>3.980591067738011E-2</v>
+        <v>-2.9458109365723434E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B66">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C66">
-        <v>2852.061410251883</v>
+        <v>2854.5004919207095</v>
       </c>
       <c r="D66">
-        <v>2.0826618308294647</v>
+        <v>2.0150681755520687</v>
       </c>
       <c r="E66">
-        <v>1.4614102518830805</v>
+        <v>2.1004919207093735</v>
       </c>
       <c r="F66">
-        <v>3.2661830829464833E-2</v>
+        <v>-1.4931824447931064E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B67">
         <v>4.05</v>
       </c>
       <c r="C67">
-        <v>2851.3700323698909</v>
+        <v>2853.7538224908553</v>
       </c>
       <c r="D67">
-        <v>4.0710972529150453</v>
+        <v>4.0337168254851568</v>
       </c>
       <c r="E67">
-        <v>0.77003236989094148</v>
+        <v>1.3538224908552365</v>
       </c>
       <c r="F67">
-        <v>2.1097252915045495E-2</v>
+        <v>-1.6283174514843068E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B68">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="C68">
-        <v>2850.5035472096883</v>
+        <v>2853.7640911999224</v>
       </c>
       <c r="D68">
-        <v>6.0506915967108963</v>
+        <v>6.0286277827209114</v>
       </c>
       <c r="E68">
-        <v>-9.6452790311559511E-2</v>
+        <v>1.3640911999223135</v>
       </c>
       <c r="F68">
-        <v>6.9159671089646935E-4</v>
+        <v>-1.372217279088872E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B69">
         <v>8.0500000000000007</v>
       </c>
       <c r="C69">
-        <v>2849.1931009294449</v>
+        <v>2854.9553967550924</v>
       </c>
       <c r="D69">
-        <v>8.0319673885510685</v>
+        <v>8.0361060126663038</v>
       </c>
       <c r="E69">
-        <v>-1.4068990705550277</v>
+        <v>2.5553967550922607</v>
       </c>
       <c r="F69">
-        <v>-1.8032611448932201E-2</v>
+        <v>-1.3893987333696955E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B70">
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="C70">
-        <v>2848.8504450373875</v>
+        <v>2853.8858883856651</v>
       </c>
       <c r="D70">
-        <v>10.00874570844446</v>
+        <v>10.026949532666412</v>
       </c>
       <c r="E70">
-        <v>-1.7495549626123648</v>
+        <v>1.4858883856650209</v>
       </c>
       <c r="F70">
-        <v>-4.1254291555540945E-2</v>
+        <v>6.9495326664128498E-3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B71">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="C71">
-        <v>2850.6826121098511</v>
+        <v>2853.7732632393272</v>
       </c>
       <c r="D71">
-        <v>11.973119745757407</v>
+        <v>12.028345672406241</v>
       </c>
       <c r="E71">
-        <v>8.2612109851197602E-2</v>
+        <v>1.373263239327116</v>
       </c>
       <c r="F71">
-        <v>-9.6880254242593722E-2</v>
+        <v>8.345672406241178E-3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B72">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="C72">
-        <v>2850.2189335585667</v>
+        <v>2852.9273847168042</v>
       </c>
       <c r="D72">
-        <v>13.897068706440187</v>
+        <v>14.027949846810179</v>
       </c>
       <c r="E72">
-        <v>-0.38106644143317681</v>
+        <v>0.52738471680413568</v>
       </c>
       <c r="F72">
-        <v>-0.1529312935598135</v>
+        <v>7.9498468101792952E-3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2850.6</v>
+        <v>2852.4</v>
       </c>
       <c r="B73">
-        <v>16.05</v>
+        <v>16.07</v>
       </c>
       <c r="C73">
-        <v>2851.1674539262453</v>
+        <v>2855.3901331421825</v>
       </c>
       <c r="D73">
-        <v>15.83979557206149</v>
+        <v>16.020137347950371</v>
       </c>
       <c r="E73">
-        <v>0.56745392624543456</v>
+        <v>2.990133142182458</v>
       </c>
       <c r="F73">
-        <v>-0.21020442793851046</v>
+        <v>-4.9862652049629475E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2951.8717793615788</v>
+        <v>2953.61157384852</v>
       </c>
       <c r="D74">
-        <v>5.5237457565151332E-2</v>
+        <v>-2.3682902305100385E-2</v>
       </c>
       <c r="E74">
-        <v>1.5717793615785922</v>
+        <v>1.5115738485201291</v>
       </c>
       <c r="F74">
-        <v>5.5237457565151332E-2</v>
+        <v>-2.3682902305100385E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B75">
-        <v>-15.93</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C75">
-        <v>2949.0705377514178</v>
+        <v>2955.3111044547504</v>
       </c>
       <c r="D75">
-        <v>-16.045905237836202</v>
+        <v>-15.958878592243604</v>
       </c>
       <c r="E75">
-        <v>-1.229462248582422</v>
+        <v>3.2111044547505116</v>
       </c>
       <c r="F75">
-        <v>-0.11590523783620199</v>
+        <v>0.14112140775639759</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B76">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="C76">
-        <v>2948.8704244890132</v>
+        <v>2954.2043096354464</v>
       </c>
       <c r="D76">
-        <v>-14.154887466729056</v>
+        <v>-13.864006907398656</v>
       </c>
       <c r="E76">
-        <v>-1.4295755109869788</v>
+        <v>2.1043096354464979</v>
       </c>
       <c r="F76">
-        <v>-8.4887466729055561E-2</v>
+        <v>8.599309260134369E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B77">
-        <v>-12.05</v>
+        <v>-11.95</v>
       </c>
       <c r="C77">
-        <v>2949.3621467031676</v>
+        <v>2953.4569691918537</v>
       </c>
       <c r="D77">
-        <v>-12.096781973620436</v>
+        <v>-11.882351755584498</v>
       </c>
       <c r="E77">
-        <v>-0.93785329683259988</v>
+        <v>1.3569691918537501</v>
       </c>
       <c r="F77">
-        <v>-4.6781973620435124E-2</v>
+        <v>6.7648244415501324E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B78">
-        <v>-10</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C78">
-        <v>2949.8118228326603</v>
+        <v>2954.8572116320233</v>
       </c>
       <c r="D78">
-        <v>-10.035653154714447</v>
+        <v>-9.9119248295540032</v>
       </c>
       <c r="E78">
-        <v>-0.48817716733992711</v>
+        <v>2.7572116320234272</v>
       </c>
       <c r="F78">
-        <v>-3.565315471444741E-2</v>
+        <v>3.8075170445996065E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B79">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="C79">
-        <v>2948.9411692724439</v>
+        <v>2954.956910966916</v>
       </c>
       <c r="D79">
-        <v>-8.0277691235115487</v>
+        <v>-7.9241543112599055</v>
       </c>
       <c r="E79">
-        <v>-1.3588307275563238</v>
+        <v>2.8569109669160753</v>
       </c>
       <c r="F79">
-        <v>-2.7769123511548699E-2</v>
+        <v>2.584568874009463E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B80">
-        <v>-6.03</v>
+        <v>-5.93</v>
       </c>
       <c r="C80">
-        <v>2949.4761561834607</v>
+        <v>2953.051510137494</v>
       </c>
       <c r="D80">
-        <v>-5.9884173129591804</v>
+        <v>-5.9437405020554301</v>
       </c>
       <c r="E80">
-        <v>-0.82384381653946548</v>
+        <v>0.95151013749409685</v>
       </c>
       <c r="F80">
-        <v>4.1582687040819799E-2</v>
+        <v>-1.3740502055430426E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B81">
-        <v>-3.98</v>
+        <v>-3.93</v>
       </c>
       <c r="C81">
-        <v>2951.3357664683622</v>
+        <v>2954.0416270542419</v>
       </c>
       <c r="D81">
-        <v>-3.9394854515217315</v>
+        <v>-3.9752639931314362</v>
       </c>
       <c r="E81">
-        <v>1.0357664683619987</v>
+        <v>1.9416270542419625</v>
       </c>
       <c r="F81">
-        <v>4.0514548478268519E-2</v>
+        <v>-4.5263993131436031E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B82">
-        <v>-1.98</v>
+        <v>-1.95</v>
       </c>
       <c r="C82">
-        <v>2952.3638357247528</v>
+        <v>2953.1878783633779</v>
       </c>
       <c r="D82">
-        <v>-1.932157757880469</v>
+        <v>-2.0023453464804137</v>
       </c>
       <c r="E82">
-        <v>2.0638357247526073</v>
+        <v>1.0878783633779676</v>
       </c>
       <c r="F82">
-        <v>4.7842242119531031E-2</v>
+        <v>-5.2345346480413779E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B83">
         <v>0.05</v>
       </c>
       <c r="C83">
-        <v>2951.8859454191734</v>
+        <v>2953.8694141658289</v>
       </c>
       <c r="D83">
-        <v>9.0548278140733005E-2</v>
+        <v>-2.9222619794284361E-3</v>
       </c>
       <c r="E83">
-        <v>1.5859454191731857</v>
+        <v>1.7694141658289482</v>
       </c>
       <c r="F83">
-        <v>4.0548278140733002E-2</v>
+        <v>-5.2922261979428439E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B84">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C84">
-        <v>2950.0459983001774</v>
+        <v>2952.7143365488714</v>
       </c>
       <c r="D84">
-        <v>2.0905924410491923</v>
+        <v>1.9947465289489574</v>
       </c>
       <c r="E84">
-        <v>-0.25400169982276566</v>
+        <v>0.61433654887150624</v>
       </c>
       <c r="F84">
-        <v>7.0592441049192267E-2</v>
+        <v>-3.5253471051042373E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B85">
         <v>4.05</v>
       </c>
       <c r="C85">
-        <v>2948.8963118008191</v>
+        <v>2955.3636190693574</v>
       </c>
       <c r="D85">
-        <v>4.0916558238812808</v>
+        <v>4.0169501943608372</v>
       </c>
       <c r="E85">
-        <v>-1.4036881991810333</v>
+        <v>3.2636190693574463</v>
       </c>
       <c r="F85">
-        <v>4.1655823881280973E-2</v>
+        <v>-3.3049805639162599E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B86">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="C86">
-        <v>2949.8687926728803</v>
+        <v>2954.1177864637798</v>
       </c>
       <c r="D86">
-        <v>6.0901518602262623</v>
+        <v>6.0203516965432096</v>
       </c>
       <c r="E86">
-        <v>-0.4312073271198642</v>
+        <v>2.0177864637798848</v>
       </c>
       <c r="F86">
-        <v>2.0151860226262031E-2</v>
+        <v>-9.6483034567906856E-3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B87">
         <v>8.0500000000000007</v>
       </c>
       <c r="C87">
-        <v>2950.1357555227682</v>
+        <v>2954.3226334300421</v>
       </c>
       <c r="D87">
-        <v>8.0410114815659597</v>
+        <v>8.0236525785502106</v>
       </c>
       <c r="E87">
-        <v>-0.16424447723193225</v>
+        <v>2.2226334300421513</v>
       </c>
       <c r="F87">
-        <v>-8.9885184340410262E-3</v>
+        <v>-2.6347421449790076E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B88">
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="C88">
-        <v>2949.0549954180869</v>
+        <v>2952.8511494075174</v>
       </c>
       <c r="D88">
-        <v>10.021694332605968</v>
+        <v>10.015017634009775</v>
       </c>
       <c r="E88">
-        <v>-1.2450045819132356</v>
+        <v>0.75114940751745962</v>
       </c>
       <c r="F88">
-        <v>-2.8305667394032952E-2</v>
+        <v>-4.9823659902248352E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B89">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="C89">
-        <v>2949.0547948977746</v>
+        <v>2954.1351512666233</v>
       </c>
       <c r="D89">
-        <v>11.982421649728199</v>
+        <v>12.009368268628968</v>
       </c>
       <c r="E89">
-        <v>-1.2452051022255546</v>
+        <v>2.0351512666234157</v>
       </c>
       <c r="F89">
-        <v>-8.7578350271801497E-2</v>
+        <v>-1.063173137103135E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B90">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="C90">
-        <v>2948.9188031182339</v>
+        <v>2953.1301453614751</v>
       </c>
       <c r="D90">
-        <v>13.913419412645602</v>
+        <v>14.016444949381395</v>
       </c>
       <c r="E90">
-        <v>-1.3811968817663001</v>
+        <v>1.0301453614752063</v>
       </c>
       <c r="F90">
-        <v>-0.13658058735439838</v>
+        <v>-3.5550506186048381E-3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2950.3</v>
+        <v>2952.1</v>
       </c>
       <c r="B91">
-        <v>16.05</v>
+        <v>16.07</v>
       </c>
       <c r="C91">
-        <v>2949.748201121798</v>
+        <v>2955.1157405263548</v>
       </c>
       <c r="D91">
-        <v>15.870388945122615</v>
+        <v>16.015395262699183</v>
       </c>
       <c r="E91">
-        <v>-0.5517988782021348</v>
+        <v>3.0157405263548753</v>
       </c>
       <c r="F91">
-        <v>-0.17961105487738571</v>
+        <v>-5.4604737300817163E-2</v>
       </c>
     </row>
   </sheetData>
